--- a/data/hotels_by_city/Dallas/Dallas_shard_244.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_244.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="604">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>priluc</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>We stayed here for 1 night, &amp; Fairfield Inn’s usually aren’t my favorite places to stay. This was a newer hotel &amp; the room was modern &amp; spotless. The tv had a huge selection of channels including Netflix. The bed was a little softer than I like. The front desk staff were very friendly, &amp; the lady in charge of the free breakfast was extremely friendly &amp; helpful. I would definitely stay here again. More</t>
   </si>
   <si>
+    <t>MrsMfromLondon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r572565551-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>Very clean, comfortable rooms. Well equipped. Good breakfast (but if you want more there is Golden Corral right next door). I would like to say a special thank you to the lady on the reception desk on the morning of April 10th (I forgot her name). We checked out and discovered our rental car had been broken into overnight and she could not have been more kind and helpful while I had to wait for police and a tow truck with three small kids (who enjoyed the snacks she gave them!). So thank you! You really helped to keep the drama to a minimum so that it did not ruin our stay.  If we are back in Plano we will be back to this hotel.More</t>
   </si>
   <si>
+    <t>Otto W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r565830383-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Grant C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r559514316-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Kmrtow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r555729631-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>mobret</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r547938712-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -291,6 +309,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>hallercf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r542455642-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -309,6 +330,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Stepperguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r539983856-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -328,6 +352,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>FLTBob</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r536393449-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -369,6 +396,9 @@
 4.  The rooms are small.  Well designed, but small.  If you have a lot of luggage, that could...I stay in lots of hotels like this - the mid price free breakfast class of hotel.  Here’s why this one was a cut above the others.1. It was clean.  Up to date.  Don’t know how old it is, but it felt brand new.2.  Lots of plugs.  This matters, right?3. A walk in shower.  No tub/shower combo.  I really love having a walk in shower.  A lot.  4.  The staff. The check in staff was friendly and welcoming.  But here was what happened when I checked out which has never happened to me before.  Ever.  I was asked “hew was your stay?” That usually happens.  But then I was asked “was there anything we could have done to make it better?”  I thought for a minute and said “It would have been nice to have hand lotion in the room.”  The front desk clerk seemed to really care about my feedback.  A few notes about this hotel.1.  Google maps does not know where this hotel is.  Be warned.2. It’s set back from the nighway.  A plus.  Quiet.3.  My room (room 100) had a bright light right outside the window.  The curtains blocked most of it out.  But when I woke up at 4:00 in the morning, it looked like it was morning time behind the curtain.4.  The rooms are small.  Well designed, but small.  If you have a lot of luggage, that could be an issue.  Or if you like a big room, just be aware.  5.  Breakfast had lots of good options.Next time I’m in Plano, I’ll stay here again.More</t>
   </si>
   <si>
+    <t>John M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r536195047-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -384,6 +414,9 @@
     <t>Stayed here October 22-25 for business. Check in was extremely efficient and quick. Staff is friendly and accommodating. Rooms are clean. The location is good and there are several places to eat within walking distance. Would stay here again.</t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r531415589-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -399,6 +432,9 @@
     <t>Hotel was spotless, in a great location, for Plano, with lots of restaurants very nearby...unfortunately, we had a problem with noise, in our first room...412, but, next morning Khizra, and Tony, took care of the problem, with a room change, and a quiet, peaceful 2nd night....thank you.  This is a nearly new hotel, with very responsive staff....highly recommend...</t>
   </si>
   <si>
+    <t>Janet S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r527249852-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>tomthbomb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r526847185-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -441,6 +480,9 @@
     <t>I finally found a location in Plano that meets my needs as a business traveler. The property is in top notch condition. It's clean, well appointed for the price point and convenient. I have been looking for more Marriott hotels where I travel, this one is almost perfect.There are several restaurants nearby, some within walking distance. After driving all day, I prefer not to drive to have my evening meal. IF the Fairfield had a shuttle to local restaurants and businesses, it would be a five star hotel for me. I will be back.More</t>
   </si>
   <si>
+    <t>Jennifer G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r522342512-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -459,6 +501,9 @@
     <t>This hotel provides convenience and comfort for its guests. It's centrally located in northeast Dallas with clean rooms, comfortable beds, breakfast, pool, and a fitness center. The staff are friendly and accommodating ( with the exception of the guy who works the night shift ). The ladies who are in charge of breakfast do a great job, especially Susan. They are very attentive to the needs of the guests and treat you like family. Just a word of caution to your housekeeping staff - try not to comment about your guests because some of us can understand Spanish.Also, if you plan to do laundry - you need tokens to use the washer &amp; dryer. You can't use quarters. You have to change your money into tokens from the front desk. One token is $2.50. The dryer needs 2 cycles to get your clothes dry. More</t>
   </si>
   <si>
+    <t>Nomadic_Thoughts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r521422187-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -474,6 +519,9 @@
     <t>This Fairfield Inn is a nice hotel and conveniently located to the freeway, shops, and restaurants. Most of the staff make you feel at home and service you with a smile...yet..a few just go about their business.Breakfast offers a good selection but are often repeated. The rooms are clean and furnished to rival some of the higher end Marriott hotels that often cost more.I found some bugs though but this can be expected in States with warmer climates.</t>
   </si>
   <si>
+    <t>b l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r509055385-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -495,6 +543,9 @@
     <t>From the moment we pulled up, everything was perfect.  The outside of the hotel has a beautiful brick exterior.  When we went to check in we were greeted by Hunter who was very friendly.  Once we got to the room, I was blown away with how clean it was. There was no dust on the tv!! That is clean!! The decor was very modern and stylish.  I loved the beautiful carpet and bright decor. The room feels light and bright. Breakfast the next morning was a typical breakfast with eggs, waffles, fruit, oatmeal, and sausage.  The lobby and breakfast bar was also nicely designed.  We swam in the pool and it was very clean.  They had lounge chairs, tables with umbrellas, and towels everywhere.  They know what travelers/ guests want! I must also mention the luggage cart was unique and more functional than a traditional cart. This hotel does everything right and knows how to treat the guests.  We travel a lot and this has been one of our favorite hotels!!!!! More</t>
   </si>
   <si>
+    <t>bobbiw417</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r508901691-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -510,6 +561,9 @@
     <t>Love this hotel. It's my new favorite around Plano. Hotel is new hence awesome rooms. Hate the sound elevators make when crossing each floor, I hope you guys can change that annoying sound. Apart from that this is one of the best properties around Plano.</t>
   </si>
   <si>
+    <t>USKosherTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r504907912-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -525,6 +579,9 @@
     <t>Nice hotel, very friendly staff, shuttle to the airport. Comfortable room. Great location if flying out the next am. Highly recommend especially if flying out the next am. Stop by and see what I mean the next time in Dallas!</t>
   </si>
   <si>
+    <t>DiverBob_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r504004467-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -549,6 +606,9 @@
     <t>The staff was friendly and helpful.  This is a fairly new hotel so everything is still very nice.  The bathroom was a good size with a bathtub size walk-in shower and good counter space around the sink.  Besides being new, everything has a modern style.  There was a small frig, coffee maker and microwave in the room.  The TV was set up so you could access your Netflix or Hulu account.The breakfast is a typical Fairfield breakfast.  They do provide some hot choices such as eggs, bacon and sausage.Wifi was free and good in the room.I would stay here again when in the area.More</t>
   </si>
   <si>
+    <t>Melanie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r501456490-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -576,6 +636,9 @@
     <t>Thoroughly enjoyed my stay here...free breakfast, friendly/courteous staff, very nice rooms with extremely comfortable beds. Would definitely stay here again and recommend to anyone visiting the Plano area.More</t>
   </si>
   <si>
+    <t>ivieisme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r501360686-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -588,6 +651,9 @@
     <t>We really liked the modern, modular layout of the room and the big sofa. The beds were comfortable and the rooms were clean. We didn't get a chance to try the breakfast because we got up a bit too late from a good night's sleep! The bathroom lighting was a bit rough but not too bad.</t>
   </si>
   <si>
+    <t>myboys03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r498984476-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -609,6 +675,9 @@
     <t>We were here for two nights. Excellent beds, very clean room and hotel, friendly staff. Only negative, when we arrived the room had a very strong sweetish-chemically smell, which was pretty awful until we got used to it. It was pretty late, hotel was full, and we got used to it after being in a while. I asked the lady at the front desk the next morning and she said it was probably from a carpet cleaning they do, but it is not every day. Next day it faded quite a bit and was much better the second night. That's the only reason I'm giving this 4 stars instead of 5, because the smell was not very pleasant that first night.More</t>
   </si>
   <si>
+    <t>Maureen B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r496984004-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -633,6 +702,9 @@
     <t>We are very pleased that we chose this hotel to conduct our 7 days training there recently.  The management and staff were very professional, efficient and easy to work with.  The meeting room was clean and perfect for our needs.  Our students who stayed at the hotel were all very happy with their stay.  We look forward to conducting more of trainings at this hotel in the future.Maureen B.More</t>
   </si>
   <si>
+    <t>Wano16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r494502873-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -657,6 +729,9 @@
     <t>I chose this hotel because of its location close to where I was doing business.   Nice enough for the price.   It was fairly quiet except that the doors slammed really fast and loud if you didn't really try to catch them and close them quietly.   Adequate room with mini fridge.   Lobby is nice.   One thing that they could improve was the elevator.   There is only one for three floors and it made so much noise you were hoping you would make it each time.   The pool was also closed when I was there.   Indoor pool.   Breakfast was free and was your typical cheaper hotel breakfast but it did have hot items like sausage, eggs, oatmeal, waffles along with cold cereal, fruit, breakfast breads and yogurt.   Staff was very friendly.  One computer business center.More</t>
   </si>
   <si>
+    <t>mugmarine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r485915158-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -681,6 +756,9 @@
     <t>New hotel and it was clean and quiet. Nice folks at the front desk. Walking distance to restaurants and easy to find from highway. Will return when in the area. Breakfast area was clean and simple food but it was fine.More</t>
   </si>
   <si>
+    <t>Bruce H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r484638047-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -699,6 +777,9 @@
     <t>We chose this hotel because it was the most reasonable. Had not stayed here before but it will be my preference. We arrived at 10:00 and tired from traveling and we were in our room in 3 min. The desk had us all ready and just handed us our key and told us what time breakfast was at. The room was very modern and comfortable with lots of space. The lady working breakfast was very personable and made sure you felt welcome. At checkout, I complemented them on their hotel and she thanked me and rewarded me with 500 points just for the complement. The whole crew worked at making the traveling experience a pleasure. Thanks!More</t>
   </si>
   <si>
+    <t>S-Rmom7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r483764099-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -714,6 +795,9 @@
     <t>Team trip to the area was based on advancing in the playoffs, so plans were last minute.  Allen was so helpful, making sure everyone in our group had the room configuration requested.  Hotel is new (and built completely green), very clean.  Breakfast was beyond the normal slim pickings of so many hotel breakfasts - hot eggs, waffle maker, fresh fruit...more than I expected.  Doors were noisy during the evening, but didn't bother us through the night.  Definitely recommend this hotel if you are in the area.  We would stay again.</t>
   </si>
   <si>
+    <t>Wade T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r482232357-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -738,6 +822,9 @@
     <t>Our lacrosse team stayed at this hotel and are planning on booking here again for future tourneys in the Plano area.  This place was very flexible, very accomodating, and the facility was in great condition.  Allen was wonderful to work with, and even caught a bit of our game. Thanks Allen -  see you again this summer!More</t>
   </si>
   <si>
+    <t>theclarks1118</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r474148492-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -765,6 +852,9 @@
     <t>This hotel was the best hotel I worked with to arrange a block of rooms for a travelling softball team. The property is new, clean and conveniently located to restaurants, stores and the Ballfields at Craig Ranch. The staff was friendly and went the extra mile by providing some breakfast items early for my daughter when we needed to head to the fields before breakfast officially started. I had several parents from the team thank me for finding such a great hotel. Will definitely stay here again when needing to stay in the Plano area.More</t>
   </si>
   <si>
+    <t>WSargent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r462707683-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -783,6 +873,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>Bill W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r459386874-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -807,6 +900,9 @@
     <t>The hotel was new and modern.  The rooms were clean and comfortable.  And, the staff was fantastic.  Location is 10 minutes from whatever restaurant you want.  Nothing but positives for this hotel.  Would certainly stay again.More</t>
   </si>
   <si>
+    <t>mbrewer41</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r454621851-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -825,6 +921,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>PinkMonkeySoap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r452870319-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -849,6 +948,9 @@
     <t>I went with hubby on a business trip. We are staying here for about four to five nights. The bed is comfortable and since I have to stay here all day I appreciate the comfortable couch. The breakfast is okay and the staff are great. I would stay here again. More</t>
   </si>
   <si>
+    <t>JAMES B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r447168534-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -867,6 +969,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Rob S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r443395725-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -882,6 +987,9 @@
     <t>I stayed here for a couple nights on a business trip, as this was the closest Marriott with any availability to the local office. Overall it was pretty nice, as its been open for less than a year at this point.Standard Marriott breakfast and room, so it delivered exactly what I was expecting. The only major downside I encountered was that getting anywhere around the hotel during either the morning or afternoon rush hours was purely miserable. I planned my drive time around that the next day and it was much more tolerable.</t>
   </si>
   <si>
+    <t>14karenk007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r442728050-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -900,6 +1008,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>RVargas98</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r441841042-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -915,6 +1026,9 @@
     <t xml:space="preserve">Very clean and convenient. Staff was courteous and professional. Rooms are clean and modern. Family friendly parking and amenities. Close to many restaurants and popular stores. Just off the interstate. </t>
   </si>
   <si>
+    <t>Joe M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r441766017-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1050,9 @@
     <t>We came for my wife's birthday. It's a New hotel. It's only 9 months old. Very Friendly staff. Nice Clean room. Up to date. We Will stay again. This hotel is a great value. It has a 4.9 rating out of 5. More</t>
   </si>
   <si>
+    <t>CMX4114</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r435058435-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1068,9 @@
     <t xml:space="preserve">As a silver level Marriott member I had a free upgrade before I ever arrived. Room was very clean and had a ton of space.  TV had Netflix and I was able to enjoy a free movie!  Breakfast was real eggs and bacon with fresh fruit and coffee.  Can't beat the price and service.  </t>
   </si>
   <si>
+    <t>mpearl2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r433568377-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -966,6 +1086,9 @@
     <t>Having stayed at numerous Fairfield Inns over the years, we found this one to be one of the best. A new addition to the Marriott family, this one has only been open about 10 months.   They indicated that they were even enhancing their continental breakfast to be much more robust within the next couple of months. A great place to stay and I would give it a high recommendation.</t>
   </si>
   <si>
+    <t>travelUSA19</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r433007148-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -984,6 +1107,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>joanie134</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r428256902-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1002,6 +1128,9 @@
     <t>Stayed for a few nights.  Rooms were clean, cozy and comfortable.  Personable staff and great breakfast with fresh cut fruit!  Only deficit, which wasn't their fault, is construction going on next door.   I didn't hear anything from my room on the opposite side of the hotel.  Newer homes should be completed within a month, so keep the date in mind reading this review.  Parking was plentiful and Whataburger (24 hours), Red Lobster and Chili's were walking distance directly across the access road.  Easy access to I-75 and close to parking for the train to downtown Dallas on Parker Road, walking distance about a mile if you prefer to walk to the train.  This is a newer hotel, so everything is updated.  Temperature control thermostat in room for consistent temperature and shut off.More</t>
   </si>
   <si>
+    <t>manhattanfoodie10019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r425105328-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1149,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Frankly T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r424771152-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1044,6 +1176,9 @@
     <t>This is worth a stay.  Nothing dramatically good or cheap, but worth what you pay.  It's clean, quiet, and the breakfast is good.  Good parking.  The help is good.  Forget the pool - it's a why-bother sort of a pool.More</t>
   </si>
   <si>
+    <t>apfulk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r422839965-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1197,9 @@
     <t>Stayed at this hotel for the Plano Balloon Festival half marathon.  The staff was very friendly, room was very clean and the facilities were well maintained.  Our stay was quick, but we did get to enjoy the complimentary breakfast which was a good spread.  The location is near shopping and a variety of restaurants.  My only compliant was the lack of sleep timer on the TV.  I know this is a silly comment, but most hotels offer this feature and it helps sleep sensitive folks lull themselves towards slumber.  Aside from this one minor inconvenience, the area is quiet and appeared safe.  Would suggest this to any travelers in the area.More</t>
   </si>
   <si>
+    <t>David M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r420579391-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1077,6 +1215,9 @@
     <t xml:space="preserve">Had a king suite. Hotel is new. Rooms are well done.  Plenty of electrical outlets and hot water. There is complimentary wifi and $4.95 upgrade. I went with complimentary and was fine for youtubes. Breakfast in morning 0600-1000 is relatively complete. Uber is available here. Take uber from DFW. Uber $40. Cab $75. </t>
   </si>
   <si>
+    <t>cld28</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r418248667-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1101,6 +1242,9 @@
     <t>We had multiple family members staying here from all over the country and each of us had the best hotel experience.  A clean, happy place with very comfortable beds &amp; pillows, nice towels, large rooms &amp; bathrooms, very friendly &amp; accommodating staff, wonderful complimentary breakfast.  We all agreed what a great stay we had!  More</t>
   </si>
   <si>
+    <t>Allen U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r414610746-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1269,9 @@
     <t>Labor Day weekend dawned upon us and we wanted to find a hotel near entertainment like Top Golf in Allen and Main Event so we chose this brand new Fairfield Inn &amp; Suites nestled in Plano. Check in was a breeze however didn't get a room on the highest floor. The rooms are brand new however smaller compared to older Fairfield's, the ac was noisy for a new unit, breakfast was pretty bland and key back entrance wasn't functioning. As for the room was clean and beds were comfortable except walls seemed paper thin as you could hear other people in next door rooms and doors slamming shut. Overall I wouldn't return to this hotel hope they improve on their breakfast as for the newly constructed walls not much hope there, average just for the Marriott brand and comfy beds are about it. More</t>
   </si>
   <si>
+    <t>BinnyHallauer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r407506098-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1143,6 +1290,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>JP P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r406227693-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1308,9 @@
     <t>New property that was well appointed and even had Netflix. Breakfast was also very good with a wide variety of items.  I had a personal issue and the management was very accommodating when they did not have to be.  Will definately stay again when I am in the area.</t>
   </si>
   <si>
+    <t>fishercreative</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r405906462-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1326,9 @@
     <t>The hotel is new and well designed. Everything you need for a short stay such as very small workout room and pool, mini fridge, netflixs on TV. Nice staff, clean, quiet, and with only four floors easy in and out. Comments would be: they need an ATM machine, towels at the pool are tiny, I suggest doing the double queen even if you want a king. More room to spread out. Rooms are tight. We will go back.</t>
   </si>
   <si>
+    <t>SweetChuck_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r400089133-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1347,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Elizabeth C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r392176316-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1206,6 +1365,9 @@
     <t>Hotel staff was very friendly. Hotel is new and looks it. There was construction going on next door so not quiet during the day. Breakfast was adequate. Room was clean and comfortable. Snacks that were available near hotel desks were very expensive. Would stay here again as it was convenient to Murphy, TX.</t>
   </si>
   <si>
+    <t>MaxiT993</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r389223168-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1381,9 @@
   </si>
   <si>
     <t xml:space="preserve">I love the cleanliness of this hotel, the linens, pillows and towels smell clean. The overall look of the room we stayed in is great although the closet seems very small to me especially if there are 4 people sharing the room. We stayed in a standard room with two queens since our stay was just for two nights. Breakfast is decent. Great location, easy access to the freeway, short distance to the Arbor Hills Nature and Preserve and restaurants. </t>
+  </si>
+  <si>
+    <t>Fisherman74</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r386611247-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -1248,6 +1413,9 @@
 The room was quiet, the AC worked well, and the...We recently stayed in a regular King room for three nights at the Fairfield on Premier in Plano, just off of 75. As I understand, the place opened in January 2016, so it was approximately six months old, at our time of stay. Overall, I was impressed with the place, the employees that we dealt with, and the location was good for us. At the moment, I would recommend it and would stay there again. I will rate this place as very good, well above average and would come real close to excellent if it were not for just one or two minor things, as mentioned below that have little impact on the stay. In general, the place was clean, and in good shape, of course it is new, so it should be. The only fault in that area, I noticed was that on the back ledge of the bathroom counter and the corners of the towel rack, needed to be wiped off as they were dusty and didn't appear to have been cleaned off in awhile. The toilet seat was a bit loose. The rest of the bathroom and the room itself appeared clean and fresh. The rooms are decorated in bright colors, which give a pleasant look and overall brightness to the room. The bathroom was large, good counter space and a large shower with good water pressure.The room was quiet, the AC worked well, and the bed was comfortable. I don't know what kind of mattress, seemed like a basic regular one. There was an ironing board, fridge (without freezer), single serve coffee maker, and desk, with chair. The only complaint on the room would be, it is a touch smaller than many places, these days. I would also mention that the channel selection on the TV was a bit limited and the remote lacked actual numerical buttons, so skipping around channels was a bit slow.The employees were pleasant and friendly without being intrusive. Upon arrival, we where first given a room on the first floor, just off the lobby, of course this would of likely been somewhat loud with people going and coming, through the lobby and with the dining area being right there, so we requested a different one and immediately got it, no problems. We asked for a few extra towels, got them, no problem. They just took care of things, the way they should.Most included breakfasts are not any good, this one while not great, was actually decent. Even had some eggs and sausage that while not great, were not bad either and they were continually bringing hot food to the warmers, so that was good. Coffee was good. By chance, I spoke to what I am guessing was...More</t>
   </si>
   <si>
+    <t>BatCom97</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r385109495-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1276,6 +1444,9 @@
 I also stayed at this hotel during a convention/tournament going on at the nearby Plano Centre and the hotel was nice enough to allow competitors in this tournament 24 hour access to a room on the first floor for us to keep playing as much as we want.  This really made the weekend great imo and I really appreciate the hotel...I stayed here last weekend and was very pleased with the hotel.  It is only a few months old and so it's good looking and in working order.  The room and bathroom are both very clean, well-kept and modern looking.  The shower is quite large, although unfortunately there's no bath tub.  I was sort of surprised at how comfortable the bed was and I got some good sleep out of it.I had a minor issue with my door (it was sort of jamming and so when opening and closing it you really had to push it hard), which I alerted the staff about.  The general manager was nice enough to take the time to walk with me to the room and check it out.  The manager blamed the problem on the hotel being new (Which didn't really make sense to me, you'd think a brand new door wouldn't be jamming), but he gave me a Whataburger gift card for the trouble which was really nice of him especially when it wasn't that big of a deal to me.I also stayed at this hotel during a convention/tournament going on at the nearby Plano Centre and the hotel was nice enough to allow competitors in this tournament 24 hour access to a room on the first floor for us to keep playing as much as we want.  This really made the weekend great imo and I really appreciate the hotel allowing it.The hotel has two tiers of internet access, which worried me, but thankfully the free tier is quite good.  It has issues buffering HD video occasionally but aside from that I had no problem with it.  There's a handful of restaurants (Whataburger, Chili's, Buffalo Wild Wings, Golden Corral) within immediate walking distance.Overall this was a great hotel for the price, and if I'm back in Plano/North Dallas area I'll probably look at staying here again.More</t>
   </si>
   <si>
+    <t>CJKatl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r384418798-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1291,6 +1462,9 @@
     <t>If you are looking for a Fairfield Inn that delivers everything you would expect from a Fairfield Inn, this is a good place for you to stay. I've stayed at just about every Marriott property in the North Dallas area, and this is definitely one of the best. It's pretty new. Everything works well, the linen and towels are fresh, the mattress comfortable, the room quiet, the Internet connects easy and is relatively fast and it's across the street from my customer. (Not that the last one will help anyone else!) The staff was very helpful. I'd recommend staying here without hesitation.</t>
   </si>
   <si>
+    <t>Kinval61</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r383431835-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1306,6 +1480,9 @@
     <t>Since it is very new the hotel is well-decorated and very clean.  the front desk staff was helpful and nice.  They seemed fairly busy.  The pool is not large and is open until 10 pm, so if you are not interested in staying up until then ask for a room without a view of the pool.  Resturants nearby within walking distance including good Greek and Indian, so- so Mexican</t>
   </si>
   <si>
+    <t>Terri M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r380427934-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1328,6 +1505,9 @@
   </si>
   <si>
     <t>Its a newer hotel so everything is in good condition. Really large bathroom. Nice bed with great pillows. Also everyone that I was in contact with that worked there was pleasant and asked how I was or if I needed anything. Thank you for the restful stay (other than the firealarm going off on Saturday night/Sunday morning)More</t>
+  </si>
+  <si>
+    <t>Melissa M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r379221918-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -1356,6 +1536,9 @@
 The hotel is across the street from a number of eateries including Golden Corral, Red Lobster, and Buffalo Wild...Fairfield Inn and Suites was not my first choice in hotel but, nonetheless, I am satisfied with my stay. I'd say it's a step down from Residence Inn and a step up from Towneplace Suites. I checked in at midnight on a Wednesday and the gentleman at the front desk was very helpful and efficient with his service. He even comped my water which was a nice treat.The rooms are clean and everything still works! This hotel opened in January 2016 so it's still pretty new. I stayed in a king room on the first floor (not my first choice in floors but it wasn't bad since it was next to the parking lot and breakfast). The shower is clean, the refrigerator works... I just wasn't fond of how loud the AC unit was. The TV is good quality with some good channels. You can even log into your Netflix, Hulu, or Pandora accounts. The breakfast is decent (especially because it's free) and seating is ample. The fitness room is a little small and the pool is located outside. The hotel was a little hard to find. You can't map it by address because it leads you somewhere by Walmart so I used the Wataburger address to get here. It's definitely a little confusing for someone unfamiliar with this area.The hotel is across the street from a number of eateries including Golden Corral, Red Lobster, and Buffalo Wild Wings. It's also close to a Target and other stores. GIve it a shot! It's about 20 minutes from Dallas.. rates are pretty good! There's also an Enterprise Rental close by if you need a car.More</t>
   </si>
   <si>
+    <t>Monty H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r377953329-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1372,6 +1555,9 @@
   </si>
   <si>
     <t>May 2016</t>
+  </si>
+  <si>
+    <t>Jeanette G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r377296985-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -1400,6 +1586,9 @@
 OUTSIDE THE ROOM: nice outdoor pool. Not a huge one, but adequate to lay in the sun and get wet - just what I'd want.  Nice fitness center. Again, not huge, but good for the size of the hotel. It has 4 cardio machines an a full weight set, enough for anyone to get a good workout in.  There's plenty of local area gyms anyway...5/28/15 - As of my stay, this hotel was still relatively brand new, opening early January 15. That being said, everything is very clean and modern and well done. All the rooms are non-smoking, so I expect it would stay that way for quite a while! Truly, I loved everything, but here's the highlights:LOCATION: Awesome location, close to tons of restaurants and activities right outside the door. It is close to 75/Central Expressway, so it's easy to get anywhere you want in no time too. The hotel is located at least a block from the expressway, so noise inside the hotel is also minimal. Everything in the area is clean and the neighborhood is safe. You couldn't ask for a better location. STAFF: friendly and courteous; helpful; greeted me promptly; let me check in a little early, which I appreciated. BREAKFAST: free continental as well as hot breakfast. It had everything you would expect, including waffles, eggs, sausage, plus all of the usual continental stuff, like yogurt, oatmeal muffins, danishes, fruit, juice and coffee. OUTSIDE THE ROOM: nice outdoor pool. Not a huge one, but adequate to lay in the sun and get wet - just what I'd want.  Nice fitness center. Again, not huge, but good for the size of the hotel. It has 4 cardio machines an a full weight set, enough for anyone to get a good workout in.  There's plenty of local area gyms anyway if you feel like you just have to have more. INSIDE THE ROOM: The bed and pillows were awesome and very, very comfortable. Definitely one of the better hotel beds I've slept in. They had a nice little desk area with a comfortable office chair that rolls and a desk that rolls as well, not to mention free WiFi, which was fast and good even at the free level (they allow you to upgrade if you really want to tax the system). Little things that most people wouldn't care about but I notice are things like Paul Mitchell shampoo and conditioner. Most of the time i won't use hotel shampoos and conditioners because they're so cheap, so I appreciate when they're nice. I also appreciate the full-length mirror, adequately supplied coffee, mini-fridge, and microwave. IF MY STAY WAS LONGER: I would have appreciated a freezer component to the mini-fridge and a small table, separate from the desk, that I could eat on (but the desk doubled as an eating place just fine), but maybe that's just because I had a smaller suite? All in all, I was EXTREMELY happy with my stay and would stay here again and again.More</t>
   </si>
   <si>
+    <t>M A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r376126355-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1424,6 +1613,9 @@
     <t>I spent almost two weeks in this hotel while visiting my family in Plano. It is brand new and super clean. The staff is amazing. Special thanks to Fabian at the front desk who was very attentive and answer every question I had. The location is amazing. Plenty of parking space and restaurants across the street and Walmart is just down the street. You can get on Highway 75 immediately. Free Wifi and Free Parking. Truly Perfect Hotel.More</t>
   </si>
   <si>
+    <t>keesio</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r375911783-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1442,6 +1634,9 @@
     <t>This hotel was one of two hotels recommended by the conference organizers. I stayed here for 4 nights and was not disappointed. The hotel looks fairly new so everything looked clean and modern. The room was nice, clean and spacious. There was a free breakfast buffet, which was ok I suppose and along what you can expect in many standard North American hotels. I guess I got spoiled from my 2 week trip across Europe just a month before where the hotels really take their breakfasts seriously there. Anyway, everything else was good. The conference organized a free shuttle service from the hotel to the nearby Plano Center where the conference is. The hotel staff was quite friendly, always saying hello when I walked by. And the person who drove the shuttle bus to the conference was really friendly and accommodating (I think he might be the manager too?), I enjoyed my conversations with him. While Texas is a place where you need a car to comfortably get around, there were some places nearby for food and drinks within walking distance (Red Lobster, Chili's, etc)..Overall a recommend place to stay if needing accommodations in the area.More</t>
   </si>
   <si>
+    <t>cindyl353</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r373204886-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1469,6 +1664,9 @@
     <t>My family had 4 rooms booked at this hotel and we couldn't have been happier!  The location was great!!!!  We arrived way before check in but they were more than happy to accommodate us.  This is a brand new facility so everything is fresh and new.  The staff was great, greeted us each and every time we came through the door.  There are restaurants of every kind around, most within walking distance.  The location is great....Target, CVS, groceries, restaurants - all within a short distance.  It's a little confusing as to how to get to the hotel but all in all - once you get there and venture out - it's not hard to figure out how to get back.  The breakfast was one of the best I've had a hotel.  If you couldn't find something to eat, it was your own fault.  Waffles, bacon, eggs, bagels, muffins, cereal, yogurt, juices, breads, coffee, and tea.  What more could you want?  :)  Beds were comfortable, plenty of pillows to be had, no problems getting extra towels, air worked great, wifi was fast.....All that and the price was great!!!  Especially for a new facility and on the weekend!More</t>
   </si>
   <si>
+    <t>jessshows</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r372840190-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1691,9 @@
     <t>Hotel is relatively new. Breakfast seemed to be ok, although we did not partake. Good location and very fairly priced... my big thing with hotels is pillows...ugh...hate down, so bring your own!! Customer service was pleasant and since the place is new it is very clean.More</t>
   </si>
   <si>
+    <t>Alex T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r361352434-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1511,6 +1712,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Tommy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r359193463-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1526,6 +1730,9 @@
     <t>I had a last minute business trip. I booked online and got there at 2 am but was quickly checked in. Front desk friendly and very efficient. Room was great and clean. Everything was brand new not wore out. Large glass wall in shower. Quiet rooms and a/c was very cold like I love. I will for sure be back!!</t>
   </si>
   <si>
+    <t>Mommysr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r358709504-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1538,6 +1745,9 @@
     <t>This hotel is new and very clean. The staff was nice. Decor is fresh. Beds were comfortable. Good location. Free breakfast. Premier is right behind a Walmart if you need anything. Close to many stores.</t>
   </si>
   <si>
+    <t>vsmith676</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r356664816-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1562,6 +1772,9 @@
     <t>Shout out to Sandy in housekeeping and Tara at the front desk for retrieving and returning some clothing I accidentally left behind! Beautiful new hotel with great breakfast food and friendly hostess. We were grateful that our room was available for early check in and for the advice on dining options.More</t>
   </si>
   <si>
+    <t>DisneyFan2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r355293439-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1583,6 +1796,9 @@
     <t>Since this hotel is brand-spanking new it is obvious that there may be a few kinks as they get up and running. But the hotel itself is a beautiful property - nicely decorated and furnished. They have a pool, fitness center, business center, and the rooms had a mini-fridge and microwave. The breakfast was the typical hotel breakfast - waffles, eggs, cereal, yogurt, fruit, and decent coffee. There are a few places directly across the street to dine - within a short walk. Last, the hotel is located within a short drive to most anything you could want and has easy access back onto the freeway.More</t>
   </si>
   <si>
+    <t>ILMgwmTraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r354694063-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1605,6 +1821,9 @@
   </si>
   <si>
     <t>I hoped to give a higher rating for this beautiful facility, but the housekeeping department needs desperate attention. On the negative, I was walking the hallway on my floor and noticed several rooms with their doors opened up or propped up, with the housekeeping cart located rooms away. You could visibly see the occupants suitcases and belongings unattended. On my last morning with my do not disturb sign on my door, I was rudely awakened by a housekeeper at 8.45 am. He appeared to be in a stupor and walked away with a sheet of paper in his hands. I told him checkout was at noon. I was unable to resume sleep, and it ruined an otherwise perfect stayOn the positive side, the workout facility is top notch. I enjoyed using the new equipment.  And, upon check in I was greeted by a friendly retired gentlemen. We talked for many minutes, so I had hoped the rest of the staff would be so wonderful. Also, you can't ask for a better location for dining. You have a buffet, fast food and several casual restaurants in walking  distance.  I will visit this property again to review any changes. More</t>
+  </si>
+  <si>
+    <t>BigBuddy66</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r352613508-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -1633,6 +1852,9 @@
     <t>Let me start with saying that I understand that this is a new hotel.  I was told that this is the third week.  This is why I am taking the time to write this review, otherwise I would just tell everyone to steer clear of this place.  I was here for three nights.  The location is great, restaurants within walking distance.  Reception was fine, I had no issues with the front desk with one exception, and I am sure they were just doing as they were told.  
 Issues to remedy:
 Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for...Let me start with saying that I understand that this is a new hotel.  I was told that this is the third week.  This is why I am taking the time to write this review, otherwise I would just tell everyone to steer clear of this place.  I was here for three nights.  The location is great, restaurants within walking distance.  Reception was fine, I had no issues with the front desk with one exception, and I am sure they were just doing as they were told.   Issues to remedy:Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for who knows how long, the front desk apologized and said they would put 3000 points on my account, still haven't seen that.  I was actually insulted by that remedy.  They should have offered 30,000 at least.  I understand that a hotel room is not secure, but you should strive to make people feel safe while they are there.Housekeeping:  A follow-up to above, housekeeping did an inconsistent job at replacing the soap and shampoo.  Actually it wasn't inconsistent, they didn't do it once during my entire stay.  I had go to the front desk every single day to get soap and shampoo.  Shower: The design of the shower is fantastic.  The control is on the opposite side from the shower-head allowing you to adjust it without standing under it.  However, BE VERY CAREFUL.  Whatever they are using to clean the shower floor with, is not being rinsed off, and makes the floor very slippery at first.  Paper thin walls:  No need to explain, just what it is.  Cant be fixed without tearing it down.Breakfast:I have stayed at Marriott Hotels for many years, and the breakfast here was just sad.   Definitely not up to par for the other locations in this chain.  Again, I am sure that its part of just being new and getting...More</t>
+  </si>
+  <si>
+    <t>TJ7923</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r344144262-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -2158,43 +2380,47 @@
       <c r="A2" t="n">
         <v>64594</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>112827</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2206,56 +2432,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64594</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136833</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2269,50 +2499,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64594</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136834</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s">
+        <v>71</v>
+      </c>
+      <c r="L4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>63</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2326,50 +2560,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64594</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>80902</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2383,50 +2621,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64594</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136835</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2440,50 +2682,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64594</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136836</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2497,50 +2743,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64594</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>136837</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2554,50 +2804,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64594</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136838</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2617,50 +2871,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64594</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136839</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2674,50 +2932,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64594</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>12976</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2731,50 +2993,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64594</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>508</v>
+      </c>
+      <c r="C12" t="s">
+        <v>126</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2788,50 +3054,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64594</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>31829</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2851,50 +3121,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64594</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136840</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -2912,56 +3186,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Y14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64594</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>4053</v>
+      </c>
+      <c r="C15" t="s">
+        <v>148</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2975,50 +3253,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64594</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136841</v>
+      </c>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3032,50 +3314,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64594</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>115681</v>
+      </c>
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3089,50 +3375,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64594</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136842</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="K18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3150,50 +3440,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64594</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>99550</v>
+      </c>
+      <c r="C19" t="s">
+        <v>175</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="K19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="L19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3207,50 +3501,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64594</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136843</v>
+      </c>
+      <c r="C20" t="s">
+        <v>181</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3268,56 +3566,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="X20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Y20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64594</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>23326</v>
+      </c>
+      <c r="C21" t="s">
+        <v>190</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O21" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3333,56 +3635,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="X21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="Y21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64594</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>136844</v>
+      </c>
+      <c r="C22" t="s">
+        <v>200</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -3402,50 +3708,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64594</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>136845</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O23" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3459,50 +3769,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64594</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>11553</v>
+      </c>
+      <c r="C24" t="s">
+        <v>213</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="J24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3518,56 +3832,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="X24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="Y24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64594</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>93038</v>
+      </c>
+      <c r="C25" t="s">
+        <v>222</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="J25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="K25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3585,56 +3903,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="X25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64594</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>136846</v>
+      </c>
+      <c r="C26" t="s">
+        <v>231</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3646,56 +3968,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="X26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="Y26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64594</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>7095</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O27" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3709,50 +4035,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64594</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>136847</v>
+      </c>
+      <c r="C28" t="s">
+        <v>247</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3772,50 +4102,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64594</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>136848</v>
+      </c>
+      <c r="C29" t="s">
+        <v>253</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="J29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="K29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -3833,56 +4167,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="X29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="Y29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64594</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>136849</v>
+      </c>
+      <c r="C30" t="s">
+        <v>262</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="J30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="L30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3898,56 +4236,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="X30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="Y30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64594</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>136850</v>
+      </c>
+      <c r="C31" t="s">
+        <v>272</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="J31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="K31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3961,50 +4303,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64594</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>9687</v>
+      </c>
+      <c r="C32" t="s">
+        <v>279</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="J32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="K32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="L32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="O32" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4020,56 +4366,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="X32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64594</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>136851</v>
+      </c>
+      <c r="C33" t="s">
+        <v>288</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="J33" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="K33" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="O33" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4089,50 +4439,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64594</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>136852</v>
+      </c>
+      <c r="C34" t="s">
+        <v>295</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="J34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="K34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4144,56 +4498,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="X34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="Y34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64594</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>136853</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="J35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4213,50 +4571,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64594</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>18696</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4276,50 +4638,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64594</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>136854</v>
+      </c>
+      <c r="C37" t="s">
+        <v>317</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="K37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="L37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="O37" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4339,50 +4705,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64594</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>136855</v>
+      </c>
+      <c r="C38" t="s">
+        <v>324</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4396,50 +4766,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64594</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>4124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>330</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>294</v>
+        <v>332</v>
       </c>
       <c r="J39" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="L39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="O39" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4451,56 +4825,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="X39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="Y39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64594</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>136856</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="O40" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4514,50 +4892,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64594</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>136857</v>
+      </c>
+      <c r="C41" t="s">
+        <v>344</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>305</v>
+        <v>345</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="J41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="K41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="L41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="O41" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4571,50 +4953,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64594</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>136858</v>
+      </c>
+      <c r="C42" t="s">
+        <v>350</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="J42" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="K42" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="L42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4634,50 +5020,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64594</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>136859</v>
+      </c>
+      <c r="C43" t="s">
+        <v>357</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>316</v>
+        <v>358</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>317</v>
+        <v>359</v>
       </c>
       <c r="J43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="K43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="O43" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4697,50 +5087,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64594</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>136860</v>
+      </c>
+      <c r="C44" t="s">
+        <v>364</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="J44" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="K44" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="L44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="O44" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4758,50 +5152,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64594</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>136861</v>
+      </c>
+      <c r="C45" t="s">
+        <v>371</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="J45" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="K45" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="L45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="O45" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4813,56 +5211,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="X45" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="Y45" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64594</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>136862</v>
+      </c>
+      <c r="C46" t="s">
+        <v>380</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="J46" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="K46" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="L46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -4880,50 +5282,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>341</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64594</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>2192</v>
+      </c>
+      <c r="C47" t="s">
+        <v>387</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="J47" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="K47" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="O47" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4937,50 +5343,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64594</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>136863</v>
+      </c>
+      <c r="C48" t="s">
+        <v>393</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="J48" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="K48" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="L48" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="O48" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -4992,56 +5402,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="X48" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="Y48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64594</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>136864</v>
+      </c>
+      <c r="C49" t="s">
+        <v>402</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="J49" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="K49" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5053,56 +5467,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="X49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="Y49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64594</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>136865</v>
+      </c>
+      <c r="C50" t="s">
+        <v>411</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="J50" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="K50" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="O50" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="n">
@@ -5120,50 +5538,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64594</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>67366</v>
+      </c>
+      <c r="C51" t="s">
+        <v>418</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="J51" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="K51" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="L51" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="O51" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5181,50 +5603,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64594</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>136866</v>
+      </c>
+      <c r="C52" t="s">
+        <v>424</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="J52" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="K52" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
       <c r="L52" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="O52" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5244,50 +5670,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64594</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>136867</v>
+      </c>
+      <c r="C53" t="s">
+        <v>430</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="J53" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="K53" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="L53" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="O53" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5301,50 +5731,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64594</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C54" t="s">
+        <v>437</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="J54" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="K54" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="L54" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -5364,50 +5798,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64594</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>136868</v>
+      </c>
+      <c r="C55" t="s">
+        <v>443</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="J55" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="K55" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="L55" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5421,50 +5859,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64594</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>136869</v>
+      </c>
+      <c r="C56" t="s">
+        <v>449</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="J56" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="K56" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="O56" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -5484,50 +5926,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64594</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>136870</v>
+      </c>
+      <c r="C57" t="s">
+        <v>457</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="J57" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="K57" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="L57" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="O57" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5545,56 +5991,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="X57" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="Y57" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64594</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>91584</v>
+      </c>
+      <c r="C58" t="s">
+        <v>466</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="J58" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="K58" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="L58" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="O58" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5612,50 +6062,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64594</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>136871</v>
+      </c>
+      <c r="C59" t="s">
+        <v>472</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>415</v>
+        <v>473</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>416</v>
+        <v>474</v>
       </c>
       <c r="J59" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="K59" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="L59" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="O59" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5673,50 +6127,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64594</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>35617</v>
+      </c>
+      <c r="C60" t="s">
+        <v>478</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>420</v>
+        <v>479</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>421</v>
+        <v>480</v>
       </c>
       <c r="J60" t="s">
-        <v>422</v>
+        <v>481</v>
       </c>
       <c r="K60" t="s">
-        <v>423</v>
+        <v>482</v>
       </c>
       <c r="L60" t="s">
-        <v>424</v>
+        <v>483</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="O60" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="n">
@@ -5734,56 +6192,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>425</v>
+        <v>484</v>
       </c>
       <c r="X60" t="s">
-        <v>426</v>
+        <v>485</v>
       </c>
       <c r="Y60" t="s">
-        <v>427</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64594</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>11859</v>
+      </c>
+      <c r="C61" t="s">
+        <v>487</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="J61" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
       <c r="K61" t="s">
-        <v>431</v>
+        <v>491</v>
       </c>
       <c r="L61" t="s">
-        <v>432</v>
+        <v>492</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="O61" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5801,50 +6263,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>433</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64594</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>136872</v>
+      </c>
+      <c r="C62" t="s">
+        <v>494</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>434</v>
+        <v>495</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="J62" t="s">
-        <v>436</v>
+        <v>497</v>
       </c>
       <c r="K62" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="L62" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="O62" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -5858,50 +6324,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>438</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64594</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C63" t="s">
+        <v>501</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>440</v>
+        <v>502</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>441</v>
+        <v>503</v>
       </c>
       <c r="J63" t="s">
-        <v>442</v>
+        <v>504</v>
       </c>
       <c r="K63" t="s">
-        <v>443</v>
+        <v>505</v>
       </c>
       <c r="L63" t="s">
-        <v>444</v>
+        <v>506</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="O63" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -5921,50 +6391,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64594</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>86393</v>
+      </c>
+      <c r="C64" t="s">
+        <v>508</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>446</v>
+        <v>509</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>447</v>
+        <v>510</v>
       </c>
       <c r="J64" t="s">
-        <v>448</v>
+        <v>511</v>
       </c>
       <c r="K64" t="s">
-        <v>449</v>
+        <v>512</v>
       </c>
       <c r="L64" t="s">
-        <v>450</v>
+        <v>513</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="O64" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
@@ -5982,56 +6456,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>451</v>
+        <v>514</v>
       </c>
       <c r="X64" t="s">
-        <v>452</v>
+        <v>515</v>
       </c>
       <c r="Y64" t="s">
-        <v>453</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64594</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>136873</v>
+      </c>
+      <c r="C65" t="s">
+        <v>517</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>455</v>
+        <v>519</v>
       </c>
       <c r="J65" t="s">
-        <v>456</v>
+        <v>520</v>
       </c>
       <c r="K65" t="s">
-        <v>457</v>
+        <v>521</v>
       </c>
       <c r="L65" t="s">
-        <v>458</v>
+        <v>522</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="O65" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="n">
@@ -6049,50 +6527,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>459</v>
+        <v>523</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64594</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>136874</v>
+      </c>
+      <c r="C66" t="s">
+        <v>524</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>460</v>
+        <v>525</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>461</v>
+        <v>526</v>
       </c>
       <c r="J66" t="s">
-        <v>462</v>
+        <v>527</v>
       </c>
       <c r="K66" t="s">
-        <v>463</v>
+        <v>528</v>
       </c>
       <c r="L66" t="s">
-        <v>464</v>
+        <v>529</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>465</v>
+        <v>530</v>
       </c>
       <c r="O66" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6108,56 +6590,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>466</v>
+        <v>531</v>
       </c>
       <c r="X66" t="s">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="Y66" t="s">
-        <v>468</v>
+        <v>533</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64594</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>136875</v>
+      </c>
+      <c r="C67" t="s">
+        <v>534</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>470</v>
+        <v>536</v>
       </c>
       <c r="J67" t="s">
-        <v>471</v>
+        <v>537</v>
       </c>
       <c r="K67" t="s">
-        <v>472</v>
+        <v>538</v>
       </c>
       <c r="L67" t="s">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="O67" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="s"/>
@@ -6169,56 +6655,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>474</v>
+        <v>540</v>
       </c>
       <c r="X67" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="Y67" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64594</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>53919</v>
+      </c>
+      <c r="C68" t="s">
+        <v>543</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>478</v>
+        <v>545</v>
       </c>
       <c r="J68" t="s">
-        <v>479</v>
+        <v>546</v>
       </c>
       <c r="K68" t="s">
-        <v>480</v>
+        <v>547</v>
       </c>
       <c r="L68" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="O68" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P68" t="s"/>
       <c r="Q68" t="s"/>
@@ -6232,50 +6722,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>481</v>
+        <v>548</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64594</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>72918</v>
+      </c>
+      <c r="C69" t="s">
+        <v>550</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>483</v>
+        <v>551</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>484</v>
+        <v>552</v>
       </c>
       <c r="J69" t="s">
-        <v>485</v>
+        <v>553</v>
       </c>
       <c r="K69" t="s">
-        <v>486</v>
+        <v>554</v>
       </c>
       <c r="L69" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="O69" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P69" t="s"/>
       <c r="Q69" t="s"/>
@@ -6289,50 +6783,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>487</v>
+        <v>555</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64594</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>136876</v>
+      </c>
+      <c r="C70" t="s">
+        <v>556</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>488</v>
+        <v>557</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>489</v>
+        <v>558</v>
       </c>
       <c r="J70" t="s">
-        <v>490</v>
+        <v>559</v>
       </c>
       <c r="K70" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L70" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="O70" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
@@ -6346,50 +6844,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>491</v>
+        <v>560</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64594</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>136877</v>
+      </c>
+      <c r="C71" t="s">
+        <v>561</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>492</v>
+        <v>562</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>493</v>
+        <v>563</v>
       </c>
       <c r="J71" t="s">
-        <v>494</v>
+        <v>564</v>
       </c>
       <c r="K71" t="s">
-        <v>495</v>
+        <v>565</v>
       </c>
       <c r="L71" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="O71" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6401,56 +6903,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="X71" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="Y71" t="s">
-        <v>499</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64594</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>136878</v>
+      </c>
+      <c r="C72" t="s">
+        <v>570</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>500</v>
+        <v>571</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>501</v>
+        <v>572</v>
       </c>
       <c r="J72" t="s">
-        <v>502</v>
+        <v>573</v>
       </c>
       <c r="K72" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="L72" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="O72" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="n">
@@ -6466,47 +6972,51 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>497</v>
+        <v>567</v>
       </c>
       <c r="X72" t="s">
-        <v>498</v>
+        <v>568</v>
       </c>
       <c r="Y72" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64594</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>136879</v>
+      </c>
+      <c r="C73" t="s">
+        <v>578</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>508</v>
+        <v>580</v>
       </c>
       <c r="J73" t="s">
-        <v>509</v>
+        <v>581</v>
       </c>
       <c r="K73" t="s">
-        <v>510</v>
+        <v>582</v>
       </c>
       <c r="L73" t="s">
-        <v>511</v>
+        <v>583</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
@@ -6523,56 +7033,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>512</v>
+        <v>584</v>
       </c>
       <c r="X73" t="s">
-        <v>513</v>
+        <v>585</v>
       </c>
       <c r="Y73" t="s">
-        <v>514</v>
+        <v>586</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>64594</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>136880</v>
+      </c>
+      <c r="C74" t="s">
+        <v>587</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>515</v>
+        <v>588</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>516</v>
+        <v>589</v>
       </c>
       <c r="J74" t="s">
-        <v>517</v>
+        <v>590</v>
       </c>
       <c r="K74" t="s">
-        <v>518</v>
+        <v>591</v>
       </c>
       <c r="L74" t="s">
-        <v>519</v>
+        <v>592</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>482</v>
+        <v>549</v>
       </c>
       <c r="O74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -6590,56 +7104,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="X74" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="Y74" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>64594</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>136881</v>
+      </c>
+      <c r="C75" t="s">
+        <v>596</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>523</v>
+        <v>597</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>524</v>
+        <v>598</v>
       </c>
       <c r="J75" t="s">
-        <v>525</v>
+        <v>599</v>
       </c>
       <c r="K75" t="s">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="L75" t="s">
-        <v>527</v>
+        <v>601</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="O75" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -6659,7 +7177,7 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_244.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_244.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="553">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,96 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>priluc</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r593595735-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>56463</t>
+  </si>
+  <si>
+    <t>9563574</t>
+  </si>
+  <si>
+    <t>593595735</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Supervisor Tony !</t>
+  </si>
+  <si>
+    <t>I had booked in two nights  for our friends as a gift  to stay at this hotel.  Unfortunately I was not informed that I had to complete the card authorization ahead of time...so when our friends went to check in they were not going to let them as it was not on file.  I would have gladly have done it but I was not told it was needed.   When they called i was not in a location to fill in the form ...I tried to tell them I would gladly do what I needed to do when I got to a location where I could send them the form...but meanwhile our guests were standing there tired after a long day of meetings and not being allowed to check in.    It was only when I spoke to the Supervisor Tony that he listened and  understood and let them check in.  Customer service by Tony was great...the other man I spoke to was absolutely no help. Sometimes it just takes thinking outside the box.  The stay was great for our friends.  Glad to know that Tony was able to help us.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I had booked in two nights  for our friends as a gift  to stay at this hotel.  Unfortunately I was not informed that I had to complete the card authorization ahead of time...so when our friends went to check in they were not going to let them as it was not on file.  I would have gladly have done it but I was not told it was needed.   When they called i was not in a location to fill in the form ...I tried to tell them I would gladly do what I needed to do when I got to a location where I could send them the form...but meanwhile our guests were standing there tired after a long day of meetings and not being allowed to check in.    It was only when I spoke to the Supervisor Tony that he listened and  understood and let them check in.  Customer service by Tony was great...the other man I spoke to was absolutely no help. Sometimes it just takes thinking outside the box.  The stay was great for our friends.  Glad to know that Tony was able to help us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r593127776-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>593127776</t>
+  </si>
+  <si>
+    <t>07/04/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are in town with my son playing In The World Series baseball tournament.  We are in and out a lot but the staff is really nice. The breakfast host is exceptional and I hope she is paid well!!  Super friendly!  Breakfast was fresh and really good!  Beds are soft and comfortable. Room was clean. Pool was clean and fun for the kids!! </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r592506077-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>592506077</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Clean &amp; comfortable room</t>
+  </si>
+  <si>
+    <t>Great beds and very clean room! Our fridge didn't work, they offered to send someone up, but we were all about to take showers so timing didn't work out. We just had drinks to keep cold, so we just kept them in our cooler. No problem at all, since ice machine was on our floor. My son enjoyed breakfast, good selection. We'll be back again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r586990681-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
+  </si>
+  <si>
+    <t>586990681</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very helpful and professional </t>
+  </si>
+  <si>
+    <t>We picked this hotel because it is located very close to Baylor Heart Hospital. Making a reservation was easy. We arrived early and stopped in to see what time check in is. We were told that we would have been able to check in early but the last room was just taken. He gave me his card and let me know I could call earlier than normal check in time to see if it was available early. We asked if we could park in the parking lot and walk to the hospital. We were assured it was alright. We checked in after 9pm and everything was ready. The room was nice. No issues. We stayed one night. We had the breakfast in the morning and it was good. Check out was easy. There is an IHOP within walking distance. The lighting between the hotel and the hospital is dim in one area of the parking lot by Motel 6 and doctor’s parking lot but is very bright in all the others, if you decide to walk late at night like we did.MoreShow less</t>
+  </si>
+  <si>
+    <t>We picked this hotel because it is located very close to Baylor Heart Hospital. Making a reservation was easy. We arrived early and stopped in to see what time check in is. We were told that we would have been able to check in early but the last room was just taken. He gave me his card and let me know I could call earlier than normal check in time to see if it was available early. We asked if we could park in the parking lot and walk to the hospital. We were assured it was alright. We checked in after 9pm and everything was ready. The room was nice. No issues. We stayed one night. We had the breakfast in the morning and it was good. Check out was easy. There is an IHOP within walking distance. The lighting between the hotel and the hospital is dim in one area of the parking lot by Motel 6 and doctor’s parking lot but is very bright in all the others, if you decide to walk late at night like we did.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r581963044-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
-    <t>56463</t>
-  </si>
-  <si>
-    <t>9563574</t>
-  </si>
-  <si>
     <t>581963044</t>
   </si>
   <si>
@@ -180,21 +255,15 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Tony B, General Manager at Fairfield Inn &amp; Suites Dallas Plano North, responded to this reviewResponded 3 days ago</t>
-  </si>
-  <si>
-    <t>Responded 3 days ago</t>
+    <t>Tony B, General Manager at Fairfield Inn &amp; Suites Dallas Plano North, responded to this reviewResponded May 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2018</t>
   </si>
   <si>
     <t>We stayed here for 1 night, &amp; Fairfield Inn’s usually aren’t my favorite places to stay. This was a newer hotel &amp; the room was modern &amp; spotless. The tv had a huge selection of channels including Netflix. The bed was a little softer than I like. The front desk staff were very friendly, &amp; the lady in charge of the free breakfast was extremely friendly &amp; helpful. I would definitely stay here again. More</t>
   </si>
   <si>
-    <t>MrsMfromLondon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r572565551-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -219,9 +288,6 @@
     <t>Very clean, comfortable rooms. Well equipped. Good breakfast (but if you want more there is Golden Corral right next door). I would like to say a special thank you to the lady on the reception desk on the morning of April 10th (I forgot her name). We checked out and discovered our rental car had been broken into overnight and she could not have been more kind and helpful while I had to wait for police and a tow truck with three small kids (who enjoyed the snacks she gave them!). So thank you! You really helped to keep the drama to a minimum so that it did not ruin our stay.  If we are back in Plano we will be back to this hotel.More</t>
   </si>
   <si>
-    <t>Otto W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r565830383-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -240,9 +306,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t>Grant C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r559514316-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -264,9 +327,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Kmrtow</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r555729631-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -285,9 +345,6 @@
     <t>January 2018</t>
   </si>
   <si>
-    <t>mobret</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r547938712-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -306,12 +363,6 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>hallercf</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r542455642-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -321,18 +372,12 @@
     <t>11/21/2017</t>
   </si>
   <si>
-    <t>Great stay</t>
-  </si>
-  <si>
     <t xml:space="preserve">We stayed for one night and have no complaints.  The room was excellent, the workout room was good, breakfast was nice with my wife commented the scrambled eggs were the best hotel scrambled eggs she has had. </t>
   </si>
   <si>
     <t>November 2017</t>
   </si>
   <si>
-    <t>Stepperguy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r539983856-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -352,9 +397,6 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>FLTBob</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r536393449-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -396,9 +438,6 @@
 4.  The rooms are small.  Well designed, but small.  If you have a lot of luggage, that could...I stay in lots of hotels like this - the mid price free breakfast class of hotel.  Here’s why this one was a cut above the others.1. It was clean.  Up to date.  Don’t know how old it is, but it felt brand new.2.  Lots of plugs.  This matters, right?3. A walk in shower.  No tub/shower combo.  I really love having a walk in shower.  A lot.  4.  The staff. The check in staff was friendly and welcoming.  But here was what happened when I checked out which has never happened to me before.  Ever.  I was asked “hew was your stay?” That usually happens.  But then I was asked “was there anything we could have done to make it better?”  I thought for a minute and said “It would have been nice to have hand lotion in the room.”  The front desk clerk seemed to really care about my feedback.  A few notes about this hotel.1.  Google maps does not know where this hotel is.  Be warned.2. It’s set back from the nighway.  A plus.  Quiet.3.  My room (room 100) had a bright light right outside the window.  The curtains blocked most of it out.  But when I woke up at 4:00 in the morning, it looked like it was morning time behind the curtain.4.  The rooms are small.  Well designed, but small.  If you have a lot of luggage, that could be an issue.  Or if you like a big room, just be aware.  5.  Breakfast had lots of good options.Next time I’m in Plano, I’ll stay here again.More</t>
   </si>
   <si>
-    <t>John M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r536195047-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -414,9 +453,6 @@
     <t>Stayed here October 22-25 for business. Check in was extremely efficient and quick. Staff is friendly and accommodating. Rooms are clean. The location is good and there are several places to eat within walking distance. Would stay here again.</t>
   </si>
   <si>
-    <t>John B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r531415589-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -432,9 +468,6 @@
     <t>Hotel was spotless, in a great location, for Plano, with lots of restaurants very nearby...unfortunately, we had a problem with noise, in our first room...412, but, next morning Khizra, and Tony, took care of the problem, with a room change, and a quiet, peaceful 2nd night....thank you.  This is a nearly new hotel, with very responsive staff....highly recommend...</t>
   </si>
   <si>
-    <t>Janet S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r527249852-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -453,9 +486,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t>tomthbomb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r526847185-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -480,9 +510,6 @@
     <t>I finally found a location in Plano that meets my needs as a business traveler. The property is in top notch condition. It's clean, well appointed for the price point and convenient. I have been looking for more Marriott hotels where I travel, this one is almost perfect.There are several restaurants nearby, some within walking distance. After driving all day, I prefer not to drive to have my evening meal. IF the Fairfield had a shuttle to local restaurants and businesses, it would be a five star hotel for me. I will be back.More</t>
   </si>
   <si>
-    <t>Jennifer G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r522342512-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -501,9 +528,6 @@
     <t>This hotel provides convenience and comfort for its guests. It's centrally located in northeast Dallas with clean rooms, comfortable beds, breakfast, pool, and a fitness center. The staff are friendly and accommodating ( with the exception of the guy who works the night shift ). The ladies who are in charge of breakfast do a great job, especially Susan. They are very attentive to the needs of the guests and treat you like family. Just a word of caution to your housekeeping staff - try not to comment about your guests because some of us can understand Spanish.Also, if you plan to do laundry - you need tokens to use the washer &amp; dryer. You can't use quarters. You have to change your money into tokens from the front desk. One token is $2.50. The dryer needs 2 cycles to get your clothes dry. More</t>
   </si>
   <si>
-    <t>Nomadic_Thoughts</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r521422187-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -519,9 +543,6 @@
     <t>This Fairfield Inn is a nice hotel and conveniently located to the freeway, shops, and restaurants. Most of the staff make you feel at home and service you with a smile...yet..a few just go about their business.Breakfast offers a good selection but are often repeated. The rooms are clean and furnished to rival some of the higher end Marriott hotels that often cost more.I found some bugs though but this can be expected in States with warmer climates.</t>
   </si>
   <si>
-    <t>b l</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r509055385-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -543,9 +564,6 @@
     <t>From the moment we pulled up, everything was perfect.  The outside of the hotel has a beautiful brick exterior.  When we went to check in we were greeted by Hunter who was very friendly.  Once we got to the room, I was blown away with how clean it was. There was no dust on the tv!! That is clean!! The decor was very modern and stylish.  I loved the beautiful carpet and bright decor. The room feels light and bright. Breakfast the next morning was a typical breakfast with eggs, waffles, fruit, oatmeal, and sausage.  The lobby and breakfast bar was also nicely designed.  We swam in the pool and it was very clean.  They had lounge chairs, tables with umbrellas, and towels everywhere.  They know what travelers/ guests want! I must also mention the luggage cart was unique and more functional than a traditional cart. This hotel does everything right and knows how to treat the guests.  We travel a lot and this has been one of our favorite hotels!!!!! More</t>
   </si>
   <si>
-    <t>bobbiw417</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r508901691-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -561,9 +579,6 @@
     <t>Love this hotel. It's my new favorite around Plano. Hotel is new hence awesome rooms. Hate the sound elevators make when crossing each floor, I hope you guys can change that annoying sound. Apart from that this is one of the best properties around Plano.</t>
   </si>
   <si>
-    <t>USKosherTraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r504907912-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -579,9 +594,6 @@
     <t>Nice hotel, very friendly staff, shuttle to the airport. Comfortable room. Great location if flying out the next am. Highly recommend especially if flying out the next am. Stop by and see what I mean the next time in Dallas!</t>
   </si>
   <si>
-    <t>DiverBob_7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r504004467-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -606,9 +618,6 @@
     <t>The staff was friendly and helpful.  This is a fairly new hotel so everything is still very nice.  The bathroom was a good size with a bathtub size walk-in shower and good counter space around the sink.  Besides being new, everything has a modern style.  There was a small frig, coffee maker and microwave in the room.  The TV was set up so you could access your Netflix or Hulu account.The breakfast is a typical Fairfield breakfast.  They do provide some hot choices such as eggs, bacon and sausage.Wifi was free and good in the room.I would stay here again when in the area.More</t>
   </si>
   <si>
-    <t>Melanie B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r501456490-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -636,9 +645,6 @@
     <t>Thoroughly enjoyed my stay here...free breakfast, friendly/courteous staff, very nice rooms with extremely comfortable beds. Would definitely stay here again and recommend to anyone visiting the Plano area.More</t>
   </si>
   <si>
-    <t>ivieisme</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r501360686-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -651,9 +657,6 @@
     <t>We really liked the modern, modular layout of the room and the big sofa. The beds were comfortable and the rooms were clean. We didn't get a chance to try the breakfast because we got up a bit too late from a good night's sleep! The bathroom lighting was a bit rough but not too bad.</t>
   </si>
   <si>
-    <t>myboys03</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r498984476-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -675,9 +678,6 @@
     <t>We were here for two nights. Excellent beds, very clean room and hotel, friendly staff. Only negative, when we arrived the room had a very strong sweetish-chemically smell, which was pretty awful until we got used to it. It was pretty late, hotel was full, and we got used to it after being in a while. I asked the lady at the front desk the next morning and she said it was probably from a carpet cleaning they do, but it is not every day. Next day it faded quite a bit and was much better the second night. That's the only reason I'm giving this 4 stars instead of 5, because the smell was not very pleasant that first night.More</t>
   </si>
   <si>
-    <t>Maureen B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r496984004-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -702,9 +702,6 @@
     <t>We are very pleased that we chose this hotel to conduct our 7 days training there recently.  The management and staff were very professional, efficient and easy to work with.  The meeting room was clean and perfect for our needs.  Our students who stayed at the hotel were all very happy with their stay.  We look forward to conducting more of trainings at this hotel in the future.Maureen B.More</t>
   </si>
   <si>
-    <t>Wano16</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r494502873-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -729,9 +726,6 @@
     <t>I chose this hotel because of its location close to where I was doing business.   Nice enough for the price.   It was fairly quiet except that the doors slammed really fast and loud if you didn't really try to catch them and close them quietly.   Adequate room with mini fridge.   Lobby is nice.   One thing that they could improve was the elevator.   There is only one for three floors and it made so much noise you were hoping you would make it each time.   The pool was also closed when I was there.   Indoor pool.   Breakfast was free and was your typical cheaper hotel breakfast but it did have hot items like sausage, eggs, oatmeal, waffles along with cold cereal, fruit, breakfast breads and yogurt.   Staff was very friendly.  One computer business center.More</t>
   </si>
   <si>
-    <t>mugmarine</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r485915158-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -756,9 +750,6 @@
     <t>New hotel and it was clean and quiet. Nice folks at the front desk. Walking distance to restaurants and easy to find from highway. Will return when in the area. Breakfast area was clean and simple food but it was fine.More</t>
   </si>
   <si>
-    <t>Bruce H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r484638047-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -777,9 +768,6 @@
     <t>We chose this hotel because it was the most reasonable. Had not stayed here before but it will be my preference. We arrived at 10:00 and tired from traveling and we were in our room in 3 min. The desk had us all ready and just handed us our key and told us what time breakfast was at. The room was very modern and comfortable with lots of space. The lady working breakfast was very personable and made sure you felt welcome. At checkout, I complemented them on their hotel and she thanked me and rewarded me with 500 points just for the complement. The whole crew worked at making the traveling experience a pleasure. Thanks!More</t>
   </si>
   <si>
-    <t>S-Rmom7</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r483764099-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -795,9 +783,6 @@
     <t>Team trip to the area was based on advancing in the playoffs, so plans were last minute.  Allen was so helpful, making sure everyone in our group had the room configuration requested.  Hotel is new (and built completely green), very clean.  Breakfast was beyond the normal slim pickings of so many hotel breakfasts - hot eggs, waffle maker, fresh fruit...more than I expected.  Doors were noisy during the evening, but didn't bother us through the night.  Definitely recommend this hotel if you are in the area.  We would stay again.</t>
   </si>
   <si>
-    <t>Wade T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r482232357-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -822,9 +807,6 @@
     <t>Our lacrosse team stayed at this hotel and are planning on booking here again for future tourneys in the Plano area.  This place was very flexible, very accomodating, and the facility was in great condition.  Allen was wonderful to work with, and even caught a bit of our game. Thanks Allen -  see you again this summer!More</t>
   </si>
   <si>
-    <t>theclarks1118</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r474148492-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -852,9 +834,6 @@
     <t>This hotel was the best hotel I worked with to arrange a block of rooms for a travelling softball team. The property is new, clean and conveniently located to restaurants, stores and the Ballfields at Craig Ranch. The staff was friendly and went the extra mile by providing some breakfast items early for my daughter when we needed to head to the fields before breakfast officially started. I had several parents from the team thank me for finding such a great hotel. Will definitely stay here again when needing to stay in the Plano area.More</t>
   </si>
   <si>
-    <t>WSargent</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r462707683-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -873,9 +852,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t>Bill W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r459386874-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -900,9 +876,6 @@
     <t>The hotel was new and modern.  The rooms were clean and comfortable.  And, the staff was fantastic.  Location is 10 minutes from whatever restaurant you want.  Nothing but positives for this hotel.  Would certainly stay again.More</t>
   </si>
   <si>
-    <t>mbrewer41</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r454621851-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -921,9 +894,6 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>PinkMonkeySoap</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r452870319-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -948,9 +918,6 @@
     <t>I went with hubby on a business trip. We are staying here for about four to five nights. The bed is comfortable and since I have to stay here all day I appreciate the comfortable couch. The breakfast is okay and the staff are great. I would stay here again. More</t>
   </si>
   <si>
-    <t>JAMES B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r447168534-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -969,9 +936,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Rob S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r443395725-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -987,9 +951,6 @@
     <t>I stayed here for a couple nights on a business trip, as this was the closest Marriott with any availability to the local office. Overall it was pretty nice, as its been open for less than a year at this point.Standard Marriott breakfast and room, so it delivered exactly what I was expecting. The only major downside I encountered was that getting anywhere around the hotel during either the morning or afternoon rush hours was purely miserable. I planned my drive time around that the next day and it was much more tolerable.</t>
   </si>
   <si>
-    <t>14karenk007</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r442728050-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1008,9 +969,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t>RVargas98</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r441841042-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1026,9 +984,6 @@
     <t xml:space="preserve">Very clean and convenient. Staff was courteous and professional. Rooms are clean and modern. Family friendly parking and amenities. Close to many restaurants and popular stores. Just off the interstate. </t>
   </si>
   <si>
-    <t>Joe M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r441766017-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1050,9 +1005,6 @@
     <t>We came for my wife's birthday. It's a New hotel. It's only 9 months old. Very Friendly staff. Nice Clean room. Up to date. We Will stay again. This hotel is a great value. It has a 4.9 rating out of 5. More</t>
   </si>
   <si>
-    <t>CMX4114</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r435058435-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1068,9 +1020,6 @@
     <t xml:space="preserve">As a silver level Marriott member I had a free upgrade before I ever arrived. Room was very clean and had a ton of space.  TV had Netflix and I was able to enjoy a free movie!  Breakfast was real eggs and bacon with fresh fruit and coffee.  Can't beat the price and service.  </t>
   </si>
   <si>
-    <t>mpearl2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r433568377-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1086,9 +1035,6 @@
     <t>Having stayed at numerous Fairfield Inns over the years, we found this one to be one of the best. A new addition to the Marriott family, this one has only been open about 10 months.   They indicated that they were even enhancing their continental breakfast to be much more robust within the next couple of months. A great place to stay and I would give it a high recommendation.</t>
   </si>
   <si>
-    <t>travelUSA19</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r433007148-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1107,9 +1053,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t>joanie134</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r428256902-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1128,9 +1071,6 @@
     <t>Stayed for a few nights.  Rooms were clean, cozy and comfortable.  Personable staff and great breakfast with fresh cut fruit!  Only deficit, which wasn't their fault, is construction going on next door.   I didn't hear anything from my room on the opposite side of the hotel.  Newer homes should be completed within a month, so keep the date in mind reading this review.  Parking was plentiful and Whataburger (24 hours), Red Lobster and Chili's were walking distance directly across the access road.  Easy access to I-75 and close to parking for the train to downtown Dallas on Parker Road, walking distance about a mile if you prefer to walk to the train.  This is a newer hotel, so everything is updated.  Temperature control thermostat in room for consistent temperature and shut off.More</t>
   </si>
   <si>
-    <t>manhattanfoodie10019</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r425105328-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1149,9 +1089,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Frankly T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r424771152-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1176,9 +1113,6 @@
     <t>This is worth a stay.  Nothing dramatically good or cheap, but worth what you pay.  It's clean, quiet, and the breakfast is good.  Good parking.  The help is good.  Forget the pool - it's a why-bother sort of a pool.More</t>
   </si>
   <si>
-    <t>apfulk</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r422839965-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1197,9 +1131,6 @@
     <t>Stayed at this hotel for the Plano Balloon Festival half marathon.  The staff was very friendly, room was very clean and the facilities were well maintained.  Our stay was quick, but we did get to enjoy the complimentary breakfast which was a good spread.  The location is near shopping and a variety of restaurants.  My only compliant was the lack of sleep timer on the TV.  I know this is a silly comment, but most hotels offer this feature and it helps sleep sensitive folks lull themselves towards slumber.  Aside from this one minor inconvenience, the area is quiet and appeared safe.  Would suggest this to any travelers in the area.More</t>
   </si>
   <si>
-    <t>David M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r420579391-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1215,9 +1146,6 @@
     <t xml:space="preserve">Had a king suite. Hotel is new. Rooms are well done.  Plenty of electrical outlets and hot water. There is complimentary wifi and $4.95 upgrade. I went with complimentary and was fine for youtubes. Breakfast in morning 0600-1000 is relatively complete. Uber is available here. Take uber from DFW. Uber $40. Cab $75. </t>
   </si>
   <si>
-    <t>cld28</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r418248667-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1242,9 +1170,6 @@
     <t>We had multiple family members staying here from all over the country and each of us had the best hotel experience.  A clean, happy place with very comfortable beds &amp; pillows, nice towels, large rooms &amp; bathrooms, very friendly &amp; accommodating staff, wonderful complimentary breakfast.  We all agreed what a great stay we had!  More</t>
   </si>
   <si>
-    <t>Allen U</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r414610746-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1269,9 +1194,6 @@
     <t>Labor Day weekend dawned upon us and we wanted to find a hotel near entertainment like Top Golf in Allen and Main Event so we chose this brand new Fairfield Inn &amp; Suites nestled in Plano. Check in was a breeze however didn't get a room on the highest floor. The rooms are brand new however smaller compared to older Fairfield's, the ac was noisy for a new unit, breakfast was pretty bland and key back entrance wasn't functioning. As for the room was clean and beds were comfortable except walls seemed paper thin as you could hear other people in next door rooms and doors slamming shut. Overall I wouldn't return to this hotel hope they improve on their breakfast as for the newly constructed walls not much hope there, average just for the Marriott brand and comfy beds are about it. More</t>
   </si>
   <si>
-    <t>BinnyHallauer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r407506098-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1290,9 +1212,6 @@
     <t>August 2016</t>
   </si>
   <si>
-    <t>JP P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r406227693-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1308,9 +1227,6 @@
     <t>New property that was well appointed and even had Netflix. Breakfast was also very good with a wide variety of items.  I had a personal issue and the management was very accommodating when they did not have to be.  Will definately stay again when I am in the area.</t>
   </si>
   <si>
-    <t>fishercreative</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r405906462-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1326,9 +1242,6 @@
     <t>The hotel is new and well designed. Everything you need for a short stay such as very small workout room and pool, mini fridge, netflixs on TV. Nice staff, clean, quiet, and with only four floors easy in and out. Comments would be: they need an ATM machine, towels at the pool are tiny, I suggest doing the double queen even if you want a king. More room to spread out. Rooms are tight. We will go back.</t>
   </si>
   <si>
-    <t>SweetChuck_12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r400089133-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1347,9 +1260,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t>Elizabeth C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r392176316-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1365,9 +1275,6 @@
     <t>Hotel staff was very friendly. Hotel is new and looks it. There was construction going on next door so not quiet during the day. Breakfast was adequate. Room was clean and comfortable. Snacks that were available near hotel desks were very expensive. Would stay here again as it was convenient to Murphy, TX.</t>
   </si>
   <si>
-    <t>MaxiT993</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r389223168-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1381,9 +1288,6 @@
   </si>
   <si>
     <t xml:space="preserve">I love the cleanliness of this hotel, the linens, pillows and towels smell clean. The overall look of the room we stayed in is great although the closet seems very small to me especially if there are 4 people sharing the room. We stayed in a standard room with two queens since our stay was just for two nights. Breakfast is decent. Great location, easy access to the freeway, short distance to the Arbor Hills Nature and Preserve and restaurants. </t>
-  </si>
-  <si>
-    <t>Fisherman74</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r386611247-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -1401,7 +1305,7 @@
     <t>We recently stayed in a regular King room for three nights at the Fairfield on Premier in Plano, just off of 75. As I understand, the place opened in January 2016, so it was approximately six months old, at our time of stay. 
 Overall, I was impressed with the place, the employees that we dealt with, and the location was good for us. At the moment, I would recommend it and would stay there again. I will rate this place as very good, well above average and would come real close to excellent if it were not for just one or two minor things, as mentioned below that have little impact on the stay. 
 In general, the place was clean, and in good shape, of course it is new, so it should be. The only fault in that area, I noticed was that on the back ledge of the bathroom counter and the corners of the towel rack, needed to be wiped off as they were dusty and didn't appear to have been cleaned off in awhile. The toilet seat was a bit loose. The rest of the bathroom and the room itself appeared clean and fresh. The rooms are decorated in bright colors, which give a pleasant look and overall brightness to the room. The bathroom was large, good counter space and a large shower with good water pressure.
-The room was quiet, the AC worked well, and the...We recently stayed in a regular King room for three nights at the Fairfield on Premier in Plano, just off of 75. As I understand, the place opened in January 2016, so it was approximately six months old, at our time of stay. Overall, I was impressed with the place, the employees that we dealt with, and the location was good for us. At the moment, I would recommend it and would stay there again. I will rate this place as very good, well above average and would come real close to excellent if it were not for just one or two minor things, as mentioned below that have little impact on the stay. In general, the place was clean, and in good shape, of course it is new, so it should be. The only fault in that area, I noticed was that on the back ledge of the bathroom counter and the corners of the towel rack, needed to be wiped off as they were dusty and didn't appear to have been cleaned off in awhile. The toilet seat was a bit loose. The rest of the bathroom and the room itself appeared clean and fresh. The rooms are decorated in bright colors, which give a pleasant look and overall brightness to the room. The bathroom was large, good counter space and a large shower with good water pressure.The room was quiet, the AC worked well, and the bed was comfortable. I don't know what kind of mattress, seemed like a basic regular one. There was an ironing board, fridge (without freezer), single serve coffee maker, and desk, with chair. The only complaint on the room would be, it is a touch smaller than many places, these days. I would also mention that the channel selection on the TV was a bit limited and the remote lacked actual numerical buttons, so skipping around channels was a bit slow.The employees were pleasant and friendly without being intrusive. Upon arrival, we where first given a room on the first floor, just off the lobby, of course this would of likely been somewhat loud with people going and coming, through the lobby and with the dining area being right there, so we requested a different one and immediately got it, no problems. We asked for a few extra towels, got them, no problem. They just took care of things, the way they should.Most included breakfasts are not any good, this one while not great, was actually decent. Even had some eggs and sausage that while not great, were not bad either and they were continually bringing hot food to the warmers, so that was good. Coffee was good. By chance, I spoke to what I am guessing was...MoreShow less</t>
+The room was quiet, the AC worked well, and the...We recently stayed in a regular King room for three nights at the Fairfield on Premier in Plano, just off of 75. As I understand, the place opened in January 2016, so it was approximately six months old, at our time of stay. Overall, I was impressed with the place, the employees that we dealt with, and the location was good for us. At the moment, I would recommend it and would stay there again. I will rate this place as very good, well above average and would come real close to excellent if it were not for just one or two minor things, as mentioned below that have little impact on the stay. In general, the place was clean, and in good shape, of course it is new, so it should be. The only fault in that area, I noticed was that on the back ledge of the bathroom counter and the corners of the towel rack, needed to be wiped off as they were dusty and didn't appear to have been cleaned off in awhile. The toilet seat was a bit loose. The rest of the bathroom and the room itself appeared clean and fresh. The rooms are decorated in bright colors, which give a pleasant look and overall brightness to the room. The bathroom was large, good counter space and a large shower with good water pressure.The room was quiet, the AC worked well, and the bed was comfortable. I don't know what kind of mattress, seemed like a basic regular one. There was an ironing board, fridge (without freezer), single serve coffee maker, and desk, with chair. The only complaint on the room would be, it is a touch smaller than many places, these days. I would also mention that the channel selection on the TV was a bit limited and the remote lacked actual numerical buttons, so skipping around channels was a bit slow.The employees were pleasant and friendly without being intrusive. Upon arrival, we where first given a room on the first floor, just off the lobby, of course this would of likely been somewhat loud with people going and coming, through the lobby and with the dining area being right there, so we requested a different one and immediately got it, no problems. We asked for a few extra towels, got them, no problem. They just took care of things, the way they should.Most included breakfasts are not any good, this one while not great, was actually decent. Even had some eggs and sausage that while not great, were not bad either and they were continually bringing hot food to the warmers, so that was good. Coffee was good. By chance, I spoke to what I am guessing was the manager one morning. Seemed like a nice fellow and  asked me how the stay was and visited a minute. He was out walking around the dining area and seemed to actually be checking on things, making sure things were right, which they were. I was impressed with that. The location was good for us, you are basically on a side street that runs parallel with 75, between Parker and Spring Creek, basically about a block from 75. While no place is completely safe, this is a good, fairly nice area that you can feel about as reasonably comfortable as you can in most any city. There is a new Golden Corral right next door, basically same parking lot, Whataburger is right across the street, along with Red Lobster and a couple other places, that you could walk to, if needed. Just up the road is a Walmart and a Main Event Entertainment Center. You have quick access to 75. I am surprised more motel chains have not put in newer places along here as it works well, at least it did for us.Good place, I hope they keep it clean and take care of it. In general I have in years past found most Marriott Properties to be poorly taken care of and so typically avoid them. We decided to try this one, since it was new and the location was good. I was impressed and hope this is a change for them as right now this is a very nice place and I would stay there again.MoreShow less</t>
   </si>
   <si>
     <t>June 2016</t>
@@ -1410,10 +1314,7 @@
     <t>We recently stayed in a regular King room for three nights at the Fairfield on Premier in Plano, just off of 75. As I understand, the place opened in January 2016, so it was approximately six months old, at our time of stay. 
 Overall, I was impressed with the place, the employees that we dealt with, and the location was good for us. At the moment, I would recommend it and would stay there again. I will rate this place as very good, well above average and would come real close to excellent if it were not for just one or two minor things, as mentioned below that have little impact on the stay. 
 In general, the place was clean, and in good shape, of course it is new, so it should be. The only fault in that area, I noticed was that on the back ledge of the bathroom counter and the corners of the towel rack, needed to be wiped off as they were dusty and didn't appear to have been cleaned off in awhile. The toilet seat was a bit loose. The rest of the bathroom and the room itself appeared clean and fresh. The rooms are decorated in bright colors, which give a pleasant look and overall brightness to the room. The bathroom was large, good counter space and a large shower with good water pressure.
-The room was quiet, the AC worked well, and the...We recently stayed in a regular King room for three nights at the Fairfield on Premier in Plano, just off of 75. As I understand, the place opened in January 2016, so it was approximately six months old, at our time of stay. Overall, I was impressed with the place, the employees that we dealt with, and the location was good for us. At the moment, I would recommend it and would stay there again. I will rate this place as very good, well above average and would come real close to excellent if it were not for just one or two minor things, as mentioned below that have little impact on the stay. In general, the place was clean, and in good shape, of course it is new, so it should be. The only fault in that area, I noticed was that on the back ledge of the bathroom counter and the corners of the towel rack, needed to be wiped off as they were dusty and didn't appear to have been cleaned off in awhile. The toilet seat was a bit loose. The rest of the bathroom and the room itself appeared clean and fresh. The rooms are decorated in bright colors, which give a pleasant look and overall brightness to the room. The bathroom was large, good counter space and a large shower with good water pressure.The room was quiet, the AC worked well, and the bed was comfortable. I don't know what kind of mattress, seemed like a basic regular one. There was an ironing board, fridge (without freezer), single serve coffee maker, and desk, with chair. The only complaint on the room would be, it is a touch smaller than many places, these days. I would also mention that the channel selection on the TV was a bit limited and the remote lacked actual numerical buttons, so skipping around channels was a bit slow.The employees were pleasant and friendly without being intrusive. Upon arrival, we where first given a room on the first floor, just off the lobby, of course this would of likely been somewhat loud with people going and coming, through the lobby and with the dining area being right there, so we requested a different one and immediately got it, no problems. We asked for a few extra towels, got them, no problem. They just took care of things, the way they should.Most included breakfasts are not any good, this one while not great, was actually decent. Even had some eggs and sausage that while not great, were not bad either and they were continually bringing hot food to the warmers, so that was good. Coffee was good. By chance, I spoke to what I am guessing was...More</t>
-  </si>
-  <si>
-    <t>BatCom97</t>
+The room was quiet, the AC worked well, and the...We recently stayed in a regular King room for three nights at the Fairfield on Premier in Plano, just off of 75. As I understand, the place opened in January 2016, so it was approximately six months old, at our time of stay. Overall, I was impressed with the place, the employees that we dealt with, and the location was good for us. At the moment, I would recommend it and would stay there again. I will rate this place as very good, well above average and would come real close to excellent if it were not for just one or two minor things, as mentioned below that have little impact on the stay. In general, the place was clean, and in good shape, of course it is new, so it should be. The only fault in that area, I noticed was that on the back ledge of the bathroom counter and the corners of the towel rack, needed to be wiped off as they were dusty and didn't appear to have been cleaned off in awhile. The toilet seat was a bit loose. The rest of the bathroom and the room itself appeared clean and fresh. The rooms are decorated in bright colors, which give a pleasant look and overall brightness to the room. The bathroom was large, good counter space and a large shower with good water pressure.The room was quiet, the AC worked well, and the bed was comfortable. I don't know what kind of mattress, seemed like a basic regular one. There was an ironing board, fridge (without freezer), single serve coffee maker, and desk, with chair. The only complaint on the room would be, it is a touch smaller than many places, these days. I would also mention that the channel selection on the TV was a bit limited and the remote lacked actual numerical buttons, so skipping around channels was a bit slow.The employees were pleasant and friendly without being intrusive. Upon arrival, we where first given a room on the first floor, just off the lobby, of course this would of likely been somewhat loud with people going and coming, through the lobby and with the dining area being right there, so we requested a different one and immediately got it, no problems. We asked for a few extra towels, got them, no problem. They just took care of things, the way they should.Most included breakfasts are not any good, this one while not great, was actually decent. Even had some eggs and sausage that while not great, were not bad either and they were continually bringing hot food to the warmers, so that was good. Coffee was good. By chance, I spoke to what I am guessing was the manager one morning. Seemed like a nice fellow and  asked me how the stay was and visited a minute. He was out walking around the dining area and seemed to actually be checking on things, making sure things were right, which they were. I was impressed with that. The location was good for us, you are basically on a side street that runs parallel with 75, between Parker and Spring Creek, basically about a block from 75. While no place is completely safe, this is a good, fairly nice area that you can feel about as reasonably comfortable as you can in most any city. There is a new Golden Corral right next door, basically same parking lot, Whataburger is right across the street, along with Red Lobster and a couple other places, that you could walk to, if needed. Just up the road is a Walmart and a Main Event Entertainment Center. You have quick access to 75. I am surprised more motel chains have not put in newer places along here as it works well, at least it did for us.Good place, I hope they keep it clean and take care of it. In general I have in years past found most Marriott Properties to be poorly taken care of and so typically avoid them. We decided to try this one, since it was new and the location was good. I was impressed and hope this is a change for them as right now this is a very nice place and I would stay there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r385109495-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -1444,9 +1345,6 @@
 I also stayed at this hotel during a convention/tournament going on at the nearby Plano Centre and the hotel was nice enough to allow competitors in this tournament 24 hour access to a room on the first floor for us to keep playing as much as we want.  This really made the weekend great imo and I really appreciate the hotel...I stayed here last weekend and was very pleased with the hotel.  It is only a few months old and so it's good looking and in working order.  The room and bathroom are both very clean, well-kept and modern looking.  The shower is quite large, although unfortunately there's no bath tub.  I was sort of surprised at how comfortable the bed was and I got some good sleep out of it.I had a minor issue with my door (it was sort of jamming and so when opening and closing it you really had to push it hard), which I alerted the staff about.  The general manager was nice enough to take the time to walk with me to the room and check it out.  The manager blamed the problem on the hotel being new (Which didn't really make sense to me, you'd think a brand new door wouldn't be jamming), but he gave me a Whataburger gift card for the trouble which was really nice of him especially when it wasn't that big of a deal to me.I also stayed at this hotel during a convention/tournament going on at the nearby Plano Centre and the hotel was nice enough to allow competitors in this tournament 24 hour access to a room on the first floor for us to keep playing as much as we want.  This really made the weekend great imo and I really appreciate the hotel allowing it.The hotel has two tiers of internet access, which worried me, but thankfully the free tier is quite good.  It has issues buffering HD video occasionally but aside from that I had no problem with it.  There's a handful of restaurants (Whataburger, Chili's, Buffalo Wild Wings, Golden Corral) within immediate walking distance.Overall this was a great hotel for the price, and if I'm back in Plano/North Dallas area I'll probably look at staying here again.More</t>
   </si>
   <si>
-    <t>CJKatl</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r384418798-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1462,9 +1360,6 @@
     <t>If you are looking for a Fairfield Inn that delivers everything you would expect from a Fairfield Inn, this is a good place for you to stay. I've stayed at just about every Marriott property in the North Dallas area, and this is definitely one of the best. It's pretty new. Everything works well, the linen and towels are fresh, the mattress comfortable, the room quiet, the Internet connects easy and is relatively fast and it's across the street from my customer. (Not that the last one will help anyone else!) The staff was very helpful. I'd recommend staying here without hesitation.</t>
   </si>
   <si>
-    <t>Kinval61</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r383431835-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1480,9 +1375,6 @@
     <t>Since it is very new the hotel is well-decorated and very clean.  the front desk staff was helpful and nice.  They seemed fairly busy.  The pool is not large and is open until 10 pm, so if you are not interested in staying up until then ask for a room without a view of the pool.  Resturants nearby within walking distance including good Greek and Indian, so- so Mexican</t>
   </si>
   <si>
-    <t>Terri M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r380427934-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1505,9 +1397,6 @@
   </si>
   <si>
     <t>Its a newer hotel so everything is in good condition. Really large bathroom. Nice bed with great pillows. Also everyone that I was in contact with that worked there was pleasant and asked how I was or if I needed anything. Thank you for the restful stay (other than the firealarm going off on Saturday night/Sunday morning)More</t>
-  </si>
-  <si>
-    <t>Melissa M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r379221918-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -1536,9 +1425,6 @@
 The hotel is across the street from a number of eateries including Golden Corral, Red Lobster, and Buffalo Wild...Fairfield Inn and Suites was not my first choice in hotel but, nonetheless, I am satisfied with my stay. I'd say it's a step down from Residence Inn and a step up from Towneplace Suites. I checked in at midnight on a Wednesday and the gentleman at the front desk was very helpful and efficient with his service. He even comped my water which was a nice treat.The rooms are clean and everything still works! This hotel opened in January 2016 so it's still pretty new. I stayed in a king room on the first floor (not my first choice in floors but it wasn't bad since it was next to the parking lot and breakfast). The shower is clean, the refrigerator works... I just wasn't fond of how loud the AC unit was. The TV is good quality with some good channels. You can even log into your Netflix, Hulu, or Pandora accounts. The breakfast is decent (especially because it's free) and seating is ample. The fitness room is a little small and the pool is located outside. The hotel was a little hard to find. You can't map it by address because it leads you somewhere by Walmart so I used the Wataburger address to get here. It's definitely a little confusing for someone unfamiliar with this area.The hotel is across the street from a number of eateries including Golden Corral, Red Lobster, and Buffalo Wild Wings. It's also close to a Target and other stores. GIve it a shot! It's about 20 minutes from Dallas.. rates are pretty good! There's also an Enterprise Rental close by if you need a car.More</t>
   </si>
   <si>
-    <t>Monty H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r377953329-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1555,9 +1441,6 @@
   </si>
   <si>
     <t>May 2016</t>
-  </si>
-  <si>
-    <t>Jeanette G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r377296985-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -1586,9 +1469,6 @@
 OUTSIDE THE ROOM: nice outdoor pool. Not a huge one, but adequate to lay in the sun and get wet - just what I'd want.  Nice fitness center. Again, not huge, but good for the size of the hotel. It has 4 cardio machines an a full weight set, enough for anyone to get a good workout in.  There's plenty of local area gyms anyway...5/28/15 - As of my stay, this hotel was still relatively brand new, opening early January 15. That being said, everything is very clean and modern and well done. All the rooms are non-smoking, so I expect it would stay that way for quite a while! Truly, I loved everything, but here's the highlights:LOCATION: Awesome location, close to tons of restaurants and activities right outside the door. It is close to 75/Central Expressway, so it's easy to get anywhere you want in no time too. The hotel is located at least a block from the expressway, so noise inside the hotel is also minimal. Everything in the area is clean and the neighborhood is safe. You couldn't ask for a better location. STAFF: friendly and courteous; helpful; greeted me promptly; let me check in a little early, which I appreciated. BREAKFAST: free continental as well as hot breakfast. It had everything you would expect, including waffles, eggs, sausage, plus all of the usual continental stuff, like yogurt, oatmeal muffins, danishes, fruit, juice and coffee. OUTSIDE THE ROOM: nice outdoor pool. Not a huge one, but adequate to lay in the sun and get wet - just what I'd want.  Nice fitness center. Again, not huge, but good for the size of the hotel. It has 4 cardio machines an a full weight set, enough for anyone to get a good workout in.  There's plenty of local area gyms anyway if you feel like you just have to have more. INSIDE THE ROOM: The bed and pillows were awesome and very, very comfortable. Definitely one of the better hotel beds I've slept in. They had a nice little desk area with a comfortable office chair that rolls and a desk that rolls as well, not to mention free WiFi, which was fast and good even at the free level (they allow you to upgrade if you really want to tax the system). Little things that most people wouldn't care about but I notice are things like Paul Mitchell shampoo and conditioner. Most of the time i won't use hotel shampoos and conditioners because they're so cheap, so I appreciate when they're nice. I also appreciate the full-length mirror, adequately supplied coffee, mini-fridge, and microwave. IF MY STAY WAS LONGER: I would have appreciated a freezer component to the mini-fridge and a small table, separate from the desk, that I could eat on (but the desk doubled as an eating place just fine), but maybe that's just because I had a smaller suite? All in all, I was EXTREMELY happy with my stay and would stay here again and again.More</t>
   </si>
   <si>
-    <t>M A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r376126355-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1613,9 +1493,6 @@
     <t>I spent almost two weeks in this hotel while visiting my family in Plano. It is brand new and super clean. The staff is amazing. Special thanks to Fabian at the front desk who was very attentive and answer every question I had. The location is amazing. Plenty of parking space and restaurants across the street and Walmart is just down the street. You can get on Highway 75 immediately. Free Wifi and Free Parking. Truly Perfect Hotel.More</t>
   </si>
   <si>
-    <t>keesio</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r375911783-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1634,9 +1511,6 @@
     <t>This hotel was one of two hotels recommended by the conference organizers. I stayed here for 4 nights and was not disappointed. The hotel looks fairly new so everything looked clean and modern. The room was nice, clean and spacious. There was a free breakfast buffet, which was ok I suppose and along what you can expect in many standard North American hotels. I guess I got spoiled from my 2 week trip across Europe just a month before where the hotels really take their breakfasts seriously there. Anyway, everything else was good. The conference organized a free shuttle service from the hotel to the nearby Plano Center where the conference is. The hotel staff was quite friendly, always saying hello when I walked by. And the person who drove the shuttle bus to the conference was really friendly and accommodating (I think he might be the manager too?), I enjoyed my conversations with him. While Texas is a place where you need a car to comfortably get around, there were some places nearby for food and drinks within walking distance (Red Lobster, Chili's, etc)..Overall a recommend place to stay if needing accommodations in the area.More</t>
   </si>
   <si>
-    <t>cindyl353</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r373204886-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1664,9 +1538,6 @@
     <t>My family had 4 rooms booked at this hotel and we couldn't have been happier!  The location was great!!!!  We arrived way before check in but they were more than happy to accommodate us.  This is a brand new facility so everything is fresh and new.  The staff was great, greeted us each and every time we came through the door.  There are restaurants of every kind around, most within walking distance.  The location is great....Target, CVS, groceries, restaurants - all within a short distance.  It's a little confusing as to how to get to the hotel but all in all - once you get there and venture out - it's not hard to figure out how to get back.  The breakfast was one of the best I've had a hotel.  If you couldn't find something to eat, it was your own fault.  Waffles, bacon, eggs, bagels, muffins, cereal, yogurt, juices, breads, coffee, and tea.  What more could you want?  :)  Beds were comfortable, plenty of pillows to be had, no problems getting extra towels, air worked great, wifi was fast.....All that and the price was great!!!  Especially for a new facility and on the weekend!More</t>
   </si>
   <si>
-    <t>jessshows</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r372840190-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1691,9 +1562,6 @@
     <t>Hotel is relatively new. Breakfast seemed to be ok, although we did not partake. Good location and very fairly priced... my big thing with hotels is pillows...ugh...hate down, so bring your own!! Customer service was pleasant and since the place is new it is very clean.More</t>
   </si>
   <si>
-    <t>Alex T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r361352434-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1712,9 +1580,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Tommy S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r359193463-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1730,9 +1595,6 @@
     <t>I had a last minute business trip. I booked online and got there at 2 am but was quickly checked in. Front desk friendly and very efficient. Room was great and clean. Everything was brand new not wore out. Large glass wall in shower. Quiet rooms and a/c was very cold like I love. I will for sure be back!!</t>
   </si>
   <si>
-    <t>Mommysr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r358709504-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1745,9 +1607,6 @@
     <t>This hotel is new and very clean. The staff was nice. Decor is fresh. Beds were comfortable. Good location. Free breakfast. Premier is right behind a Walmart if you need anything. Close to many stores.</t>
   </si>
   <si>
-    <t>vsmith676</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r356664816-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1772,9 +1631,6 @@
     <t>Shout out to Sandy in housekeeping and Tara at the front desk for retrieving and returning some clothing I accidentally left behind! Beautiful new hotel with great breakfast food and friendly hostess. We were grateful that our room was available for early check in and for the advice on dining options.More</t>
   </si>
   <si>
-    <t>DisneyFan2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r355293439-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1796,9 +1652,6 @@
     <t>Since this hotel is brand-spanking new it is obvious that there may be a few kinks as they get up and running. But the hotel itself is a beautiful property - nicely decorated and furnished. They have a pool, fitness center, business center, and the rooms had a mini-fridge and microwave. The breakfast was the typical hotel breakfast - waffles, eggs, cereal, yogurt, fruit, and decent coffee. There are a few places directly across the street to dine - within a short walk. Last, the hotel is located within a short drive to most anything you could want and has easy access back onto the freeway.More</t>
   </si>
   <si>
-    <t>ILMgwmTraveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r354694063-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
   </si>
   <si>
@@ -1821,9 +1674,6 @@
   </si>
   <si>
     <t>I hoped to give a higher rating for this beautiful facility, but the housekeeping department needs desperate attention. On the negative, I was walking the hallway on my floor and noticed several rooms with their doors opened up or propped up, with the housekeeping cart located rooms away. You could visibly see the occupants suitcases and belongings unattended. On my last morning with my do not disturb sign on my door, I was rudely awakened by a housekeeper at 8.45 am. He appeared to be in a stupor and walked away with a sheet of paper in his hands. I told him checkout was at noon. I was unable to resume sleep, and it ruined an otherwise perfect stayOn the positive side, the workout facility is top notch. I enjoyed using the new equipment.  And, upon check in I was greeted by a friendly retired gentlemen. We talked for many minutes, so I had hoped the rest of the staff would be so wonderful. Also, you can't ask for a better location for dining. You have a buffet, fast food and several casual restaurants in walking  distance.  I will visit this property again to review any changes. More</t>
-  </si>
-  <si>
-    <t>BigBuddy66</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r352613508-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -1840,7 +1690,7 @@
   <si>
     <t>Let me start with saying that I understand that this is a new hotel.  I was told that this is the third week.  This is why I am taking the time to write this review, otherwise I would just tell everyone to steer clear of this place.  I was here for three nights.  The location is great, restaurants within walking distance.  Reception was fine, I had no issues with the front desk with one exception, and I am sure they were just doing as they were told.  
 Issues to remedy:
-Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for...Let me start with saying that I understand that this is a new hotel.  I was told that this is the third week.  This is why I am taking the time to write this review, otherwise I would just tell everyone to steer clear of this place.  I was here for three nights.  The location is great, restaurants within walking distance.  Reception was fine, I had no issues with the front desk with one exception, and I am sure they were just doing as they were told.   Issues to remedy:Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for who knows how long, the front desk apologized and said they would put 3000 points on my account, still haven't seen that.  I was actually insulted by that remedy.  They should have offered 30,000 at least.  I understand that a hotel room is not secure, but you should strive to make people feel safe while they are there.Housekeeping:  A follow-up to above, housekeeping did an inconsistent job at replacing the soap and shampoo.  Actually it wasn't inconsistent, they didn't do it once during my entire stay.  I had go to the front desk every single day to get soap and shampoo.  Shower: The design of the shower is fantastic.  The control is on the opposite side from the shower-head allowing you to adjust it without standing under it.  However, BE VERY CAREFUL.  Whatever they are using to clean the shower floor with, is not being rinsed off, and makes the floor very slippery at first.  Paper thin walls:  No need to explain, just what it is.  Cant be fixed without tearing it down.Breakfast:I have stayed at Marriott Hotels for many years, and the breakfast here was just sad.   Definitely not up to par for the other locations in this chain.  Again, I am sure that its part of just being new and getting...MoreShow less</t>
+Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for...Let me start with saying that I understand that this is a new hotel.  I was told that this is the third week.  This is why I am taking the time to write this review, otherwise I would just tell everyone to steer clear of this place.  I was here for three nights.  The location is great, restaurants within walking distance.  Reception was fine, I had no issues with the front desk with one exception, and I am sure they were just doing as they were told.   Issues to remedy:Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for who knows how long, the front desk apologized and said they would put 3000 points on my account, still haven't seen that.  I was actually insulted by that remedy.  They should have offered 30,000 at least.  I understand that a hotel room is not secure, but you should strive to make people feel safe while they are there.Housekeeping:  A follow-up to above, housekeeping did an inconsistent job at replacing the soap and shampoo.  Actually it wasn't inconsistent, they didn't do it once during my entire stay.  I had go to the front desk every single day to get soap and shampoo.  Shower: The design of the shower is fantastic.  The control is on the opposite side from the shower-head allowing you to adjust it without standing under it.  However, BE VERY CAREFUL.  Whatever they are using to clean the shower floor with, is not being rinsed off, and makes the floor very slippery at first.  Paper thin walls:  No need to explain, just what it is.  Cant be fixed without tearing it down.Breakfast:I have stayed at Marriott Hotels for many years, and the breakfast here was just sad.   Definitely not up to par for the other locations in this chain.  Again, I am sure that its part of just being new and getting up and running, but clearly more could be done to ensure that the food is fresh and kept up.   I didn't even try again on my last day.    The items like yogurt and cereal and such were fine, its the stuff that they were making like eggs and bacon/sausage.  The sausage was just ugly, seriously.  Only one urn of coffee also, which always seemed to be empty or close to it.  I know this is a small thing for most folks, but it's those small things that people remember.  I hope that you can improve these things as the hotel is in a good location and could be a popular stop.  Best of luck.MoreShow less</t>
   </si>
   <si>
     <t>Candice L, Front Office Manager at Fairfield Inn &amp; Suites Dallas Plano North, responded to this reviewResponded March 4, 2016</t>
@@ -1851,10 +1701,7 @@
   <si>
     <t>Let me start with saying that I understand that this is a new hotel.  I was told that this is the third week.  This is why I am taking the time to write this review, otherwise I would just tell everyone to steer clear of this place.  I was here for three nights.  The location is great, restaurants within walking distance.  Reception was fine, I had no issues with the front desk with one exception, and I am sure they were just doing as they were told.  
 Issues to remedy:
-Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for...Let me start with saying that I understand that this is a new hotel.  I was told that this is the third week.  This is why I am taking the time to write this review, otherwise I would just tell everyone to steer clear of this place.  I was here for three nights.  The location is great, restaurants within walking distance.  Reception was fine, I had no issues with the front desk with one exception, and I am sure they were just doing as they were told.   Issues to remedy:Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for who knows how long, the front desk apologized and said they would put 3000 points on my account, still haven't seen that.  I was actually insulted by that remedy.  They should have offered 30,000 at least.  I understand that a hotel room is not secure, but you should strive to make people feel safe while they are there.Housekeeping:  A follow-up to above, housekeeping did an inconsistent job at replacing the soap and shampoo.  Actually it wasn't inconsistent, they didn't do it once during my entire stay.  I had go to the front desk every single day to get soap and shampoo.  Shower: The design of the shower is fantastic.  The control is on the opposite side from the shower-head allowing you to adjust it without standing under it.  However, BE VERY CAREFUL.  Whatever they are using to clean the shower floor with, is not being rinsed off, and makes the floor very slippery at first.  Paper thin walls:  No need to explain, just what it is.  Cant be fixed without tearing it down.Breakfast:I have stayed at Marriott Hotels for many years, and the breakfast here was just sad.   Definitely not up to par for the other locations in this chain.  Again, I am sure that its part of just being new and getting...More</t>
-  </si>
-  <si>
-    <t>TJ7923</t>
+Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for...Let me start with saying that I understand that this is a new hotel.  I was told that this is the third week.  This is why I am taking the time to write this review, otherwise I would just tell everyone to steer clear of this place.  I was here for three nights.  The location is great, restaurants within walking distance.  Reception was fine, I had no issues with the front desk with one exception, and I am sure they were just doing as they were told.   Issues to remedy:Security - The hotel has CCTV and access control, that wasn't my problem.  I have attached a photo of how I discovered my room coming back from a day's work.  When I left, the housekeeping crew was just outside my door on one end of the hallway, when I returned in the afternoon, they were on the other end of the hall.  My door was propped open and it looked like the housekeeping folks had moved the trash cans and taken my soap and shampoo.  There were no staff anywhere around the room.  The bed was untouched, towels were gone, and one of the rolls of toilet paper was gone.  I am not sure why they took the toilet paper as it wasn't empty.  Fortunately there was a spare.  When I called down to the desk to explain how my room was found, unlocked with the door propped open for who knows how long, the front desk apologized and said they would put 3000 points on my account, still haven't seen that.  I was actually insulted by that remedy.  They should have offered 30,000 at least.  I understand that a hotel room is not secure, but you should strive to make people feel safe while they are there.Housekeeping:  A follow-up to above, housekeeping did an inconsistent job at replacing the soap and shampoo.  Actually it wasn't inconsistent, they didn't do it once during my entire stay.  I had go to the front desk every single day to get soap and shampoo.  Shower: The design of the shower is fantastic.  The control is on the opposite side from the shower-head allowing you to adjust it without standing under it.  However, BE VERY CAREFUL.  Whatever they are using to clean the shower floor with, is not being rinsed off, and makes the floor very slippery at first.  Paper thin walls:  No need to explain, just what it is.  Cant be fixed without tearing it down.Breakfast:I have stayed at Marriott Hotels for many years, and the breakfast here was just sad.   Definitely not up to par for the other locations in this chain.  Again, I am sure that its part of just being new and getting up and running, but clearly more could be done to ensure that the food is fresh and kept up.   I didn't even try again on my last day.    The items like yogurt and cereal and such were fine, its the stuff that they were making like eggs and bacon/sausage.  The sausage was just ugly, seriously.  Only one urn of coffee also, which always seemed to be empty or close to it.  I know this is a small thing for most folks, but it's those small things that people remember.  I hope that you can improve these things as the hotel is in a good location and could be a popular stop.  Best of luck.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56463-d9563574-r344144262-Fairfield_Inn_Suites_Dallas_Plano_North-Plano_Texas.html</t>
@@ -2380,47 +2227,43 @@
       <c r="A2" t="n">
         <v>64594</v>
       </c>
-      <c r="B2" t="n">
-        <v>112827</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2431,61 +2274,53 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>64594</v>
       </c>
-      <c r="B3" t="n">
-        <v>136833</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="O3" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2499,115 +2334,113 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>64594</v>
       </c>
-      <c r="B4" t="n">
-        <v>136834</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>64594</v>
       </c>
-      <c r="B5" t="n">
-        <v>80902</v>
-      </c>
-      <c r="C5" t="s">
-        <v>74</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2621,54 +2454,50 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>64594</v>
       </c>
-      <c r="B6" t="n">
-        <v>136835</v>
-      </c>
-      <c r="C6" t="s">
-        <v>82</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2679,57 +2508,57 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>64594</v>
       </c>
-      <c r="B7" t="n">
-        <v>136836</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2743,54 +2572,50 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>64594</v>
       </c>
-      <c r="B8" t="n">
-        <v>136837</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2804,121 +2629,107 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>64594</v>
       </c>
-      <c r="B9" t="n">
-        <v>136838</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>64594</v>
       </c>
-      <c r="B10" t="n">
-        <v>136839</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2932,54 +2743,50 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>64594</v>
       </c>
-      <c r="B11" t="n">
-        <v>12976</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2993,54 +2800,50 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>64594</v>
       </c>
-      <c r="B12" t="n">
-        <v>508</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3054,63 +2857,59 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>64594</v>
       </c>
-      <c r="B13" t="n">
-        <v>31829</v>
-      </c>
-      <c r="C13" t="s">
-        <v>132</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>5</v>
@@ -3121,125 +2920,107 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>64594</v>
       </c>
-      <c r="B14" t="n">
-        <v>136840</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s">
-        <v>81</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>145</v>
-      </c>
-      <c r="X14" t="s">
-        <v>146</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>64594</v>
       </c>
-      <c r="B15" t="n">
-        <v>4053</v>
-      </c>
-      <c r="C15" t="s">
-        <v>148</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3253,54 +3034,50 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>64594</v>
       </c>
-      <c r="B16" t="n">
-        <v>136841</v>
-      </c>
-      <c r="C16" t="s">
-        <v>155</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="K16" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3314,180 +3091,180 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>64594</v>
       </c>
-      <c r="B17" t="n">
-        <v>115681</v>
-      </c>
-      <c r="C17" t="s">
-        <v>161</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>64594</v>
       </c>
-      <c r="B18" t="n">
-        <v>136842</v>
-      </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>155</v>
+      </c>
+      <c r="X18" t="s">
+        <v>156</v>
+      </c>
       <c r="Y18" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>64594</v>
       </c>
-      <c r="B19" t="n">
-        <v>99550</v>
-      </c>
-      <c r="C19" t="s">
-        <v>175</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3501,206 +3278,174 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>64594</v>
       </c>
-      <c r="B20" t="n">
-        <v>136843</v>
-      </c>
-      <c r="C20" t="s">
-        <v>181</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="O20" t="s">
-        <v>81</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>187</v>
-      </c>
-      <c r="X20" t="s">
-        <v>188</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>64594</v>
       </c>
-      <c r="B21" t="n">
-        <v>23326</v>
-      </c>
-      <c r="C21" t="s">
-        <v>190</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>4</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s">
-        <v>197</v>
-      </c>
-      <c r="X21" t="s">
-        <v>198</v>
-      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>64594</v>
       </c>
-      <c r="B22" t="n">
-        <v>136844</v>
-      </c>
-      <c r="C22" t="s">
-        <v>200</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="O22" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
         <v>5</v>
       </c>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3708,54 +3453,50 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>64594</v>
       </c>
-      <c r="B23" t="n">
-        <v>136845</v>
-      </c>
-      <c r="C23" t="s">
-        <v>205</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="O23" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3769,56 +3510,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>64594</v>
       </c>
-      <c r="B24" t="n">
-        <v>11553</v>
-      </c>
-      <c r="C24" t="s">
-        <v>213</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="J24" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="O24" t="s">
-        <v>81</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="n">
@@ -3832,66 +3571,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="X24" t="s">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="Y24" t="s">
-        <v>221</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>64594</v>
       </c>
-      <c r="B25" t="n">
-        <v>93038</v>
-      </c>
-      <c r="C25" t="s">
-        <v>222</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" t="n">
+        <v>61</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
         <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>3</v>
       </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
@@ -3903,125 +3636,119 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="X25" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="Y25" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>64594</v>
       </c>
-      <c r="B26" t="n">
-        <v>136846</v>
-      </c>
-      <c r="C26" t="s">
-        <v>231</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>196</v>
+        <v>125</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>237</v>
-      </c>
-      <c r="X26" t="s">
-        <v>238</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>64594</v>
       </c>
-      <c r="B27" t="n">
-        <v>7095</v>
-      </c>
-      <c r="C27" t="s">
-        <v>240</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O27" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4035,58 +3762,52 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>64594</v>
       </c>
-      <c r="B28" t="n">
-        <v>136847</v>
-      </c>
-      <c r="C28" t="s">
-        <v>247</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="J28" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="K28" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O28" t="s">
-        <v>96</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="n">
@@ -4099,197 +3820,185 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>219</v>
+      </c>
+      <c r="X28" t="s">
+        <v>220</v>
+      </c>
       <c r="Y28" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>64594</v>
       </c>
-      <c r="B29" t="n">
-        <v>136848</v>
-      </c>
-      <c r="C29" t="s">
-        <v>253</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>255</v>
+        <v>223</v>
       </c>
       <c r="J29" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="K29" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="L29" t="s">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R29" t="s"/>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="X29" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="Y29" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>64594</v>
       </c>
-      <c r="B30" t="n">
-        <v>136849</v>
-      </c>
-      <c r="C30" t="s">
-        <v>262</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>263</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="J30" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="X30" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="Y30" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>64594</v>
       </c>
-      <c r="B31" t="n">
-        <v>136850</v>
-      </c>
-      <c r="C31" t="s">
-        <v>272</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="J31" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="O31" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4303,129 +4012,119 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>64594</v>
       </c>
-      <c r="B32" t="n">
-        <v>9687</v>
-      </c>
-      <c r="C32" t="s">
-        <v>279</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="K32" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="L32" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="O32" t="s">
-        <v>81</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
       <c r="Q32" t="s"/>
       <c r="R32" t="s"/>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>285</v>
-      </c>
-      <c r="X32" t="s">
-        <v>286</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>64594</v>
       </c>
-      <c r="B33" t="n">
-        <v>136851</v>
-      </c>
-      <c r="C33" t="s">
-        <v>288</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="J33" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="K33" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="L33" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>294</v>
+        <v>199</v>
       </c>
       <c r="O33" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
       <c r="S33" t="n">
         <v>5</v>
       </c>
@@ -4436,198 +4135,186 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>254</v>
+      </c>
+      <c r="X33" t="s">
+        <v>255</v>
+      </c>
       <c r="Y33" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>64594</v>
       </c>
-      <c r="B34" t="n">
-        <v>136852</v>
-      </c>
-      <c r="C34" t="s">
-        <v>295</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>296</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
-        <v>298</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
-        <v>299</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="O34" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>301</v>
+        <v>263</v>
       </c>
       <c r="X34" t="s">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>64594</v>
       </c>
-      <c r="B35" t="n">
-        <v>136853</v>
-      </c>
-      <c r="C35" t="s">
-        <v>304</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>306</v>
+        <v>267</v>
       </c>
       <c r="J35" t="s">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="O35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
-      <c r="R35" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>5</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>64594</v>
       </c>
-      <c r="B36" t="n">
-        <v>18696</v>
-      </c>
-      <c r="C36" t="s">
-        <v>311</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="J36" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="K36" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="L36" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>310</v>
+        <v>271</v>
       </c>
       <c r="O36" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
         <v>4</v>
       </c>
-      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
         <v>4</v>
@@ -4635,66 +4322,66 @@
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>277</v>
+      </c>
+      <c r="X36" t="s">
+        <v>278</v>
+      </c>
       <c r="Y36" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>64594</v>
       </c>
-      <c r="B37" t="n">
-        <v>136854</v>
-      </c>
-      <c r="C37" t="s">
-        <v>317</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>319</v>
+        <v>281</v>
       </c>
       <c r="J37" t="s">
-        <v>320</v>
+        <v>282</v>
       </c>
       <c r="K37" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="O37" t="s">
-        <v>96</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="s"/>
-      <c r="S37" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
         <v>5</v>
@@ -4705,54 +4392,50 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>64594</v>
       </c>
-      <c r="B38" t="n">
-        <v>136855</v>
-      </c>
-      <c r="C38" t="s">
-        <v>324</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="J38" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="K38" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="L38" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="O38" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4763,443 +4446,421 @@
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s"/>
-      <c r="X38" t="s"/>
+      <c r="W38" t="s">
+        <v>291</v>
+      </c>
+      <c r="X38" t="s">
+        <v>292</v>
+      </c>
       <c r="Y38" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>64594</v>
       </c>
-      <c r="B39" t="n">
-        <v>4124</v>
-      </c>
-      <c r="C39" t="s">
-        <v>330</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>331</v>
+        <v>294</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
       <c r="J39" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="K39" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="L39" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="O39" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="P39" t="s"/>
-      <c r="Q39" t="s"/>
-      <c r="R39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>335</v>
-      </c>
-      <c r="X39" t="s">
-        <v>336</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>64594</v>
       </c>
-      <c r="B40" t="n">
-        <v>136856</v>
-      </c>
-      <c r="C40" t="s">
-        <v>338</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="J40" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="K40" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="L40" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="O40" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
-      <c r="R40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>64594</v>
       </c>
-      <c r="B41" t="n">
-        <v>136857</v>
-      </c>
-      <c r="C41" t="s">
-        <v>344</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="J41" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="K41" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="L41" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="O41" t="s">
-        <v>96</v>
-      </c>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
       <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>64594</v>
       </c>
-      <c r="B42" t="n">
-        <v>136858</v>
-      </c>
-      <c r="C42" t="s">
-        <v>350</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="J42" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="K42" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="L42" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="O42" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>5</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>64594</v>
       </c>
-      <c r="B43" t="n">
-        <v>136859</v>
-      </c>
-      <c r="C43" t="s">
-        <v>357</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="J43" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="K43" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="L43" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>356</v>
+        <v>299</v>
       </c>
       <c r="O43" t="s">
-        <v>111</v>
-      </c>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>320</v>
+      </c>
+      <c r="X43" t="s">
+        <v>321</v>
+      </c>
       <c r="Y43" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>64594</v>
       </c>
-      <c r="B44" t="n">
-        <v>136860</v>
-      </c>
-      <c r="C44" t="s">
-        <v>364</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="J44" t="s">
-        <v>367</v>
+        <v>325</v>
       </c>
       <c r="K44" t="s">
-        <v>368</v>
+        <v>326</v>
       </c>
       <c r="L44" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
-      <c r="R44" t="n">
-        <v>4</v>
-      </c>
+      <c r="R44" t="s"/>
       <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>4</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>369</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>64594</v>
       </c>
-      <c r="B45" t="n">
-        <v>136861</v>
-      </c>
-      <c r="C45" t="s">
-        <v>371</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
       <c r="J45" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="K45" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="O45" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5210,68 +4871,62 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>377</v>
-      </c>
-      <c r="X45" t="s">
-        <v>378</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>64594</v>
       </c>
-      <c r="B46" t="n">
-        <v>136862</v>
-      </c>
-      <c r="C46" t="s">
-        <v>380</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>381</v>
+        <v>333</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="J46" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="K46" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="L46" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="O46" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -5282,180 +4937,174 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>386</v>
+        <v>337</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>64594</v>
       </c>
-      <c r="B47" t="n">
-        <v>2192</v>
-      </c>
-      <c r="C47" t="s">
-        <v>387</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>388</v>
+        <v>339</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>389</v>
+        <v>340</v>
       </c>
       <c r="J47" t="s">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="K47" t="s">
-        <v>391</v>
+        <v>342</v>
       </c>
       <c r="L47" t="s">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="O47" t="s">
-        <v>81</v>
-      </c>
-      <c r="P47" t="s"/>
+        <v>126</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>64594</v>
       </c>
-      <c r="B48" t="n">
-        <v>136863</v>
-      </c>
-      <c r="C48" t="s">
-        <v>393</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>394</v>
+        <v>345</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>346</v>
       </c>
       <c r="J48" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="K48" t="s">
-        <v>397</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s">
-        <v>398</v>
+        <v>349</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="O48" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
       <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>399</v>
-      </c>
-      <c r="X48" t="s">
-        <v>400</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>64594</v>
       </c>
-      <c r="B49" t="n">
-        <v>136864</v>
-      </c>
-      <c r="C49" t="s">
-        <v>402</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
       <c r="J49" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
       <c r="K49" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="L49" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="O49" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5467,66 +5116,62 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
       <c r="X49" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
       <c r="Y49" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>64594</v>
       </c>
-      <c r="B50" t="n">
-        <v>136865</v>
-      </c>
-      <c r="C50" t="s">
-        <v>411</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>413</v>
+        <v>360</v>
       </c>
       <c r="J50" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
       <c r="K50" t="s">
-        <v>415</v>
+        <v>362</v>
       </c>
       <c r="L50" t="s">
-        <v>416</v>
+        <v>363</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="O50" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="P50" t="s"/>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
@@ -5538,186 +5183,168 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>64594</v>
       </c>
-      <c r="B51" t="n">
-        <v>67366</v>
-      </c>
-      <c r="C51" t="s">
-        <v>418</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="J51" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="K51" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="L51" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="O51" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="P51" t="s"/>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q51" t="s"/>
       <c r="R51" t="s"/>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>64594</v>
       </c>
-      <c r="B52" t="n">
-        <v>136866</v>
-      </c>
-      <c r="C52" t="s">
-        <v>424</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="J52" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="K52" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="L52" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="O52" t="s">
-        <v>96</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
       <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>5</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
+      <c r="W52" t="s">
+        <v>375</v>
+      </c>
+      <c r="X52" t="s">
+        <v>376</v>
+      </c>
       <c r="Y52" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>64594</v>
       </c>
-      <c r="B53" t="n">
-        <v>136867</v>
-      </c>
-      <c r="C53" t="s">
-        <v>430</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>378</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>432</v>
+        <v>379</v>
       </c>
       <c r="J53" t="s">
-        <v>433</v>
+        <v>380</v>
       </c>
       <c r="K53" t="s">
-        <v>434</v>
+        <v>381</v>
       </c>
       <c r="L53" t="s">
-        <v>435</v>
+        <v>382</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>436</v>
+        <v>350</v>
       </c>
       <c r="O53" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5728,63 +5355,61 @@
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s"/>
-      <c r="X53" t="s"/>
+      <c r="W53" t="s">
+        <v>383</v>
+      </c>
+      <c r="X53" t="s">
+        <v>384</v>
+      </c>
       <c r="Y53" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>64594</v>
       </c>
-      <c r="B54" t="n">
-        <v>1612</v>
-      </c>
-      <c r="C54" t="s">
-        <v>437</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="J54" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="K54" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
       <c r="L54" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="O54" t="s">
-        <v>54</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="P54" t="s"/>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R54" t="s"/>
       <c r="S54" t="s"/>
@@ -5798,123 +5423,119 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>64594</v>
       </c>
-      <c r="B55" t="n">
-        <v>136868</v>
-      </c>
-      <c r="C55" t="s">
-        <v>443</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="J55" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
       <c r="K55" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="L55" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
       <c r="O55" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
       <c r="R55" t="s"/>
       <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>64594</v>
       </c>
-      <c r="B56" t="n">
-        <v>136869</v>
-      </c>
-      <c r="C56" t="s">
-        <v>449</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>450</v>
+        <v>397</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>451</v>
+        <v>398</v>
       </c>
       <c r="J56" t="s">
-        <v>452</v>
+        <v>399</v>
       </c>
       <c r="K56" t="s">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="L56" t="s">
-        <v>454</v>
+        <v>401</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="O56" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="s"/>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
       <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
@@ -5926,130 +5547,114 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>456</v>
+        <v>401</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>64594</v>
       </c>
-      <c r="B57" t="n">
-        <v>136870</v>
-      </c>
-      <c r="C57" t="s">
-        <v>457</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>458</v>
+        <v>402</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="J57" t="s">
-        <v>460</v>
+        <v>404</v>
       </c>
       <c r="K57" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
       <c r="L57" t="s">
-        <v>462</v>
+        <v>406</v>
       </c>
       <c r="M57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="O57" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
-      <c r="R57" t="n">
-        <v>3</v>
-      </c>
-      <c r="S57" t="n">
-        <v>5</v>
-      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>463</v>
-      </c>
-      <c r="X57" t="s">
-        <v>464</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>465</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>64594</v>
       </c>
-      <c r="B58" t="n">
-        <v>91584</v>
-      </c>
-      <c r="C58" t="s">
-        <v>466</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
       <c r="J58" t="s">
-        <v>469</v>
+        <v>410</v>
       </c>
       <c r="K58" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
       <c r="L58" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="O58" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q58" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
       <c r="R58" t="s"/>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
@@ -6062,194 +5667,176 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>64594</v>
       </c>
-      <c r="B59" t="n">
-        <v>136871</v>
-      </c>
-      <c r="C59" t="s">
-        <v>472</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>473</v>
+        <v>413</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>474</v>
+        <v>414</v>
       </c>
       <c r="J59" t="s">
-        <v>475</v>
+        <v>415</v>
       </c>
       <c r="K59" t="s">
-        <v>476</v>
+        <v>416</v>
       </c>
       <c r="L59" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>455</v>
+        <v>407</v>
       </c>
       <c r="O59" t="s">
-        <v>81</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>5</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>477</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>64594</v>
       </c>
-      <c r="B60" t="n">
-        <v>35617</v>
-      </c>
-      <c r="C60" t="s">
-        <v>478</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>479</v>
+        <v>418</v>
       </c>
       <c r="G60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>480</v>
+        <v>419</v>
       </c>
       <c r="J60" t="s">
-        <v>481</v>
+        <v>420</v>
       </c>
       <c r="K60" t="s">
-        <v>482</v>
+        <v>421</v>
       </c>
       <c r="L60" t="s">
-        <v>483</v>
+        <v>422</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="O60" t="s">
-        <v>96</v>
-      </c>
-      <c r="P60" t="s"/>
-      <c r="Q60" t="n">
-        <v>4</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="s"/>
       <c r="R60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S60" t="s"/>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>484</v>
-      </c>
-      <c r="X60" t="s">
-        <v>485</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>486</v>
+        <v>424</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>64594</v>
       </c>
-      <c r="B61" t="n">
-        <v>11859</v>
-      </c>
-      <c r="C61" t="s">
-        <v>487</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
       <c r="G61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>489</v>
+        <v>426</v>
       </c>
       <c r="J61" t="s">
-        <v>490</v>
+        <v>427</v>
       </c>
       <c r="K61" t="s">
-        <v>491</v>
+        <v>428</v>
       </c>
       <c r="L61" t="s">
-        <v>492</v>
+        <v>429</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="O61" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
-      <c r="R61" t="s"/>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
       <c r="S61" t="n">
         <v>5</v>
       </c>
@@ -6260,127 +5847,125 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>430</v>
+      </c>
+      <c r="X61" t="s">
+        <v>431</v>
+      </c>
       <c r="Y61" t="s">
-        <v>493</v>
+        <v>432</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>64594</v>
       </c>
-      <c r="B62" t="n">
-        <v>136872</v>
-      </c>
-      <c r="C62" t="s">
-        <v>494</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="G62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="J62" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
       <c r="K62" t="s">
-        <v>498</v>
+        <v>436</v>
       </c>
       <c r="L62" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="O62" t="s">
-        <v>96</v>
-      </c>
-      <c r="P62" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
       <c r="Q62" t="s"/>
       <c r="R62" t="s"/>
       <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
       <c r="V62" t="n">
         <v>0</v>
       </c>
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>499</v>
+        <v>437</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>64594</v>
       </c>
-      <c r="B63" t="n">
-        <v>2025</v>
-      </c>
-      <c r="C63" t="s">
-        <v>501</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>502</v>
+        <v>438</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>503</v>
+        <v>439</v>
       </c>
       <c r="J63" t="s">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="K63" t="s">
-        <v>505</v>
+        <v>441</v>
       </c>
       <c r="L63" t="s">
-        <v>506</v>
+        <v>442</v>
       </c>
       <c r="M63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="O63" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
-      <c r="S63" t="n">
-        <v>5</v>
-      </c>
+      <c r="S63" t="s"/>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
         <v>5</v>
@@ -6391,132 +5976,124 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>507</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>64594</v>
       </c>
-      <c r="B64" t="n">
-        <v>86393</v>
-      </c>
-      <c r="C64" t="s">
-        <v>508</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>509</v>
+        <v>443</v>
       </c>
       <c r="G64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>510</v>
+        <v>444</v>
       </c>
       <c r="J64" t="s">
-        <v>511</v>
+        <v>445</v>
       </c>
       <c r="K64" t="s">
-        <v>512</v>
+        <v>446</v>
       </c>
       <c r="L64" t="s">
-        <v>513</v>
+        <v>447</v>
       </c>
       <c r="M64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="O64" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
-        <v>5</v>
-      </c>
-      <c r="R64" t="s"/>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>514</v>
+        <v>448</v>
       </c>
       <c r="X64" t="s">
-        <v>515</v>
+        <v>449</v>
       </c>
       <c r="Y64" t="s">
-        <v>516</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>64594</v>
       </c>
-      <c r="B65" t="n">
-        <v>136873</v>
-      </c>
-      <c r="C65" t="s">
-        <v>517</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>518</v>
+        <v>451</v>
       </c>
       <c r="G65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>519</v>
+        <v>452</v>
       </c>
       <c r="J65" t="s">
-        <v>520</v>
+        <v>453</v>
       </c>
       <c r="K65" t="s">
-        <v>521</v>
+        <v>454</v>
       </c>
       <c r="L65" t="s">
-        <v>522</v>
+        <v>455</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="O65" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="P65" t="s"/>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q65" t="s"/>
       <c r="R65" t="s"/>
-      <c r="S65" t="s"/>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>5</v>
@@ -6527,371 +6104,363 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>64594</v>
       </c>
-      <c r="B66" t="n">
-        <v>136874</v>
-      </c>
-      <c r="C66" t="s">
-        <v>524</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="G66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>526</v>
+        <v>458</v>
       </c>
       <c r="J66" t="s">
-        <v>527</v>
+        <v>459</v>
       </c>
       <c r="K66" t="s">
-        <v>528</v>
+        <v>460</v>
       </c>
       <c r="L66" t="s">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>530</v>
+        <v>462</v>
       </c>
       <c r="O66" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
       <c r="R66" t="s"/>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
-      <c r="U66" t="n">
-        <v>5</v>
-      </c>
+      <c r="U66" t="s"/>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
-        <v>531</v>
-      </c>
-      <c r="X66" t="s">
-        <v>532</v>
-      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>533</v>
+        <v>461</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>64594</v>
       </c>
-      <c r="B67" t="n">
-        <v>136875</v>
-      </c>
-      <c r="C67" t="s">
-        <v>534</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>535</v>
+        <v>463</v>
       </c>
       <c r="G67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>536</v>
+        <v>464</v>
       </c>
       <c r="J67" t="s">
-        <v>537</v>
+        <v>465</v>
       </c>
       <c r="K67" t="s">
-        <v>538</v>
+        <v>466</v>
       </c>
       <c r="L67" t="s">
-        <v>539</v>
+        <v>467</v>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="O67" t="s">
-        <v>81</v>
-      </c>
-      <c r="P67" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
       <c r="Q67" t="s"/>
       <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s">
-        <v>540</v>
-      </c>
-      <c r="X67" t="s">
-        <v>541</v>
-      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>542</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>64594</v>
       </c>
-      <c r="B68" t="n">
-        <v>53919</v>
-      </c>
-      <c r="C68" t="s">
-        <v>543</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>544</v>
+        <v>469</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>545</v>
+        <v>470</v>
       </c>
       <c r="J68" t="s">
-        <v>546</v>
+        <v>471</v>
       </c>
       <c r="K68" t="s">
-        <v>547</v>
+        <v>472</v>
       </c>
       <c r="L68" t="s">
-        <v>548</v>
+        <v>473</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>549</v>
+        <v>462</v>
       </c>
       <c r="O68" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="P68" t="s"/>
-      <c r="Q68" t="s"/>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
       <c r="R68" t="s"/>
-      <c r="S68" t="s"/>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
       <c r="T68" t="s"/>
-      <c r="U68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>474</v>
+      </c>
+      <c r="X68" t="s">
+        <v>475</v>
+      </c>
       <c r="Y68" t="s">
-        <v>548</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>64594</v>
       </c>
-      <c r="B69" t="n">
-        <v>72918</v>
-      </c>
-      <c r="C69" t="s">
-        <v>550</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>551</v>
+        <v>477</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>552</v>
+        <v>478</v>
       </c>
       <c r="J69" t="s">
-        <v>553</v>
+        <v>479</v>
       </c>
       <c r="K69" t="s">
-        <v>554</v>
+        <v>480</v>
       </c>
       <c r="L69" t="s">
-        <v>555</v>
+        <v>481</v>
       </c>
       <c r="M69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>549</v>
+        <v>462</v>
       </c>
       <c r="O69" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="P69" t="s"/>
-      <c r="Q69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
       <c r="R69" t="s"/>
       <c r="S69" t="s"/>
       <c r="T69" t="s"/>
-      <c r="U69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
       <c r="V69" t="n">
         <v>0</v>
       </c>
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>555</v>
+        <v>482</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>64594</v>
       </c>
-      <c r="B70" t="n">
-        <v>136876</v>
-      </c>
-      <c r="C70" t="s">
-        <v>556</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>557</v>
+        <v>483</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="J70" t="s">
-        <v>559</v>
+        <v>485</v>
       </c>
       <c r="K70" t="s">
-        <v>315</v>
+        <v>486</v>
       </c>
       <c r="L70" t="s">
-        <v>560</v>
+        <v>487</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>549</v>
+        <v>488</v>
       </c>
       <c r="O70" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="P70" t="s"/>
       <c r="Q70" t="s"/>
       <c r="R70" t="s"/>
-      <c r="S70" t="s"/>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
       <c r="T70" t="s"/>
-      <c r="U70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
+      <c r="W70" t="s">
+        <v>489</v>
+      </c>
+      <c r="X70" t="s">
+        <v>490</v>
+      </c>
       <c r="Y70" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>64594</v>
       </c>
-      <c r="B71" t="n">
-        <v>136877</v>
-      </c>
-      <c r="C71" t="s">
-        <v>561</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>562</v>
+        <v>492</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>563</v>
+        <v>493</v>
       </c>
       <c r="J71" t="s">
-        <v>564</v>
+        <v>494</v>
       </c>
       <c r="K71" t="s">
-        <v>565</v>
+        <v>495</v>
       </c>
       <c r="L71" t="s">
-        <v>566</v>
+        <v>496</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>549</v>
+        <v>462</v>
       </c>
       <c r="O71" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -6903,126 +6472,114 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>567</v>
+        <v>497</v>
       </c>
       <c r="X71" t="s">
-        <v>568</v>
+        <v>498</v>
       </c>
       <c r="Y71" t="s">
-        <v>569</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>64594</v>
       </c>
-      <c r="B72" t="n">
-        <v>136878</v>
-      </c>
-      <c r="C72" t="s">
-        <v>570</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>571</v>
+        <v>500</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>572</v>
+        <v>501</v>
       </c>
       <c r="J72" t="s">
-        <v>573</v>
+        <v>502</v>
       </c>
       <c r="K72" t="s">
-        <v>574</v>
+        <v>503</v>
       </c>
       <c r="L72" t="s">
-        <v>575</v>
+        <v>504</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>576</v>
+        <v>505</v>
       </c>
       <c r="O72" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="P72" t="s"/>
-      <c r="Q72" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q72" t="s"/>
       <c r="R72" t="s"/>
       <c r="S72" t="s"/>
       <c r="T72" t="s"/>
-      <c r="U72" t="n">
-        <v>5</v>
-      </c>
+      <c r="U72" t="s"/>
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s">
-        <v>567</v>
-      </c>
-      <c r="X72" t="s">
-        <v>568</v>
-      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>577</v>
+        <v>504</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>64594</v>
       </c>
-      <c r="B73" t="n">
-        <v>136879</v>
-      </c>
-      <c r="C73" t="s">
-        <v>578</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>579</v>
+        <v>506</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>580</v>
+        <v>507</v>
       </c>
       <c r="J73" t="s">
-        <v>581</v>
+        <v>508</v>
       </c>
       <c r="K73" t="s">
-        <v>582</v>
+        <v>509</v>
       </c>
       <c r="L73" t="s">
-        <v>583</v>
+        <v>510</v>
       </c>
       <c r="M73" t="n">
-        <v>3</v>
-      </c>
-      <c r="N73" t="s"/>
-      <c r="O73" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>505</v>
+      </c>
+      <c r="O73" t="s">
+        <v>102</v>
+      </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
       <c r="R73" t="s"/>
@@ -7032,152 +6589,380 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s">
-        <v>584</v>
-      </c>
-      <c r="X73" t="s">
-        <v>585</v>
-      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>64594</v>
       </c>
-      <c r="B74" t="n">
-        <v>136880</v>
-      </c>
-      <c r="C74" t="s">
-        <v>587</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>588</v>
+        <v>511</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>589</v>
+        <v>512</v>
       </c>
       <c r="J74" t="s">
-        <v>590</v>
+        <v>513</v>
       </c>
       <c r="K74" t="s">
-        <v>591</v>
+        <v>303</v>
       </c>
       <c r="L74" t="s">
-        <v>592</v>
+        <v>514</v>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>549</v>
+        <v>505</v>
       </c>
       <c r="O74" t="s">
-        <v>81</v>
-      </c>
-      <c r="P74" t="n">
-        <v>3</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
-      <c r="R74" t="n">
-        <v>4</v>
-      </c>
+      <c r="R74" t="s"/>
       <c r="S74" t="s"/>
       <c r="T74" t="s"/>
-      <c r="U74" t="n">
-        <v>3</v>
-      </c>
+      <c r="U74" t="s"/>
       <c r="V74" t="n">
         <v>0</v>
       </c>
-      <c r="W74" t="s">
-        <v>593</v>
-      </c>
-      <c r="X74" t="s">
-        <v>594</v>
-      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>595</v>
+        <v>514</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>64594</v>
       </c>
-      <c r="B75" t="n">
-        <v>136881</v>
-      </c>
-      <c r="C75" t="s">
-        <v>596</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>597</v>
+        <v>515</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>598</v>
+        <v>516</v>
       </c>
       <c r="J75" t="s">
-        <v>599</v>
+        <v>517</v>
       </c>
       <c r="K75" t="s">
-        <v>600</v>
+        <v>518</v>
       </c>
       <c r="L75" t="s">
-        <v>601</v>
+        <v>519</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>602</v>
+        <v>505</v>
       </c>
       <c r="O75" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
-      <c r="R75" t="n">
-        <v>5</v>
-      </c>
-      <c r="S75" t="n">
-        <v>5</v>
-      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
       <c r="T75" t="s"/>
-      <c r="U75" t="n">
-        <v>5</v>
-      </c>
+      <c r="U75" t="s"/>
       <c r="V75" t="n">
         <v>0</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
+      <c r="W75" t="s">
+        <v>520</v>
+      </c>
+      <c r="X75" t="s">
+        <v>521</v>
+      </c>
       <c r="Y75" t="s">
-        <v>603</v>
+        <v>522</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64594</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>523</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>524</v>
+      </c>
+      <c r="J76" t="s">
+        <v>525</v>
+      </c>
+      <c r="K76" t="s">
+        <v>526</v>
+      </c>
+      <c r="L76" t="s">
+        <v>527</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>528</v>
+      </c>
+      <c r="O76" t="s">
+        <v>102</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>520</v>
+      </c>
+      <c r="X76" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64594</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>530</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>531</v>
+      </c>
+      <c r="J77" t="s">
+        <v>532</v>
+      </c>
+      <c r="K77" t="s">
+        <v>533</v>
+      </c>
+      <c r="L77" t="s">
+        <v>534</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>535</v>
+      </c>
+      <c r="X77" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64594</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>538</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>539</v>
+      </c>
+      <c r="J78" t="s">
+        <v>540</v>
+      </c>
+      <c r="K78" t="s">
+        <v>541</v>
+      </c>
+      <c r="L78" t="s">
+        <v>542</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>505</v>
+      </c>
+      <c r="O78" t="s">
+        <v>102</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>543</v>
+      </c>
+      <c r="X78" t="s">
+        <v>544</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64594</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>546</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>547</v>
+      </c>
+      <c r="J79" t="s">
+        <v>548</v>
+      </c>
+      <c r="K79" t="s">
+        <v>549</v>
+      </c>
+      <c r="L79" t="s">
+        <v>550</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>551</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>552</v>
       </c>
     </row>
   </sheetData>
